--- a/mastering-formulas-start.xlsx
+++ b/mastering-formulas-start.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\mastering-excel-formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3124DE-9CCD-4ECF-92FA-62C7B49DF2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC8ABE0-6348-4CD7-BB4A-F45B9E437F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="8" xr2:uid="{10F93473-B6B8-404C-A8E1-8F56B0329D91}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{10F93473-B6B8-404C-A8E1-8F56B0329D91}"/>
   </bookViews>
   <sheets>
-    <sheet name="Finish" sheetId="10" r:id="rId1"/>
-    <sheet name="pixar-dreamworks" sheetId="9" r:id="rId2"/>
-    <sheet name="references" sheetId="3" r:id="rId3"/>
-    <sheet name="ranges-practice" sheetId="6" r:id="rId4"/>
-    <sheet name="penguins" sheetId="7" r:id="rId5"/>
-    <sheet name="mpg" sheetId="8" r:id="rId6"/>
-    <sheet name="circumference" sheetId="11" r:id="rId7"/>
-    <sheet name="quadratic" sheetId="12" r:id="rId8"/>
-    <sheet name="readable" sheetId="13" r:id="rId9"/>
+    <sheet name="commissions" sheetId="10" r:id="rId1"/>
+    <sheet name="grades" sheetId="17" r:id="rId2"/>
+    <sheet name="pixar-dreamworks" sheetId="9" r:id="rId3"/>
+    <sheet name="references" sheetId="3" r:id="rId4"/>
+    <sheet name="ranges-practice" sheetId="6" r:id="rId5"/>
+    <sheet name="penguins" sheetId="7" r:id="rId6"/>
+    <sheet name="mpg" sheetId="8" r:id="rId7"/>
+    <sheet name="circumference" sheetId="11" r:id="rId8"/>
+    <sheet name="quadratic" sheetId="12" r:id="rId9"/>
+    <sheet name="readable" sheetId="13" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'pixar-dreamworks'!$A$1:$P$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'pixar-dreamworks'!$A$1:$K$42</definedName>
     <definedName name="CIRCUMFERENCE">_xlfn.LAMBDA(_xlpm.radius, (2 * PI() * _xlpm.radius))</definedName>
     <definedName name="fixed_cost">references!$B$1</definedName>
     <definedName name="nyc_total_population">'ranges-practice'!$G$12:$G$33</definedName>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="235">
   <si>
     <t>Fixed cost</t>
   </si>
@@ -466,13 +467,7 @@
     <t>passat</t>
   </si>
   <si>
-    <t>What percent of DreamWorks movies had a Metacritic rating above 90%?</t>
-  </si>
-  <si>
     <t>What percent of Pixar movies grossed over $500 million?</t>
-  </si>
-  <si>
-    <t>Since 2000?</t>
   </si>
   <si>
     <t>What is the average Rotten Tomatoes score for Pixar films? DreamWorks?</t>
@@ -616,31 +611,13 @@
     <t>Grade</t>
   </si>
   <si>
-    <t>average ratings</t>
-  </si>
-  <si>
-    <t>Metacritic rating</t>
-  </si>
-  <si>
-    <t>RottenTomatoes rating</t>
-  </si>
-  <si>
     <t>Profit</t>
-  </si>
-  <si>
-    <t>Gross (thousands)</t>
   </si>
   <si>
     <t>Gross</t>
   </si>
   <si>
     <t>Budget</t>
-  </si>
-  <si>
-    <t>How many years ago?</t>
-  </si>
-  <si>
-    <t>Month Released</t>
   </si>
   <si>
     <t>Release date</t>
@@ -799,6 +776,15 @@
     <t>LAMBDA()
 Name manager:</t>
   </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Since 2010?</t>
+  </si>
 </sst>
 </file>
 
@@ -835,12 +821,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -937,7 +929,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -978,16 +970,8 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -998,37 +982,51 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1385,20 +1383,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40882DA7-08DA-438E-9955-3013D39D38FB}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31.36328125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="5"/>
-    <col min="3" max="5" width="8.6328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.953125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.953125" style="17" customWidth="1"/>
+    <col min="3" max="4" width="25.2265625" style="17" customWidth="1"/>
+    <col min="5" max="7" width="8.6328125" style="5" customWidth="1"/>
     <col min="8" max="8" width="8.40625" style="5" customWidth="1"/>
     <col min="9" max="10" width="10.54296875" style="5" customWidth="1"/>
     <col min="11" max="11" width="8.04296875" style="5" bestFit="1" customWidth="1"/>
@@ -1409,98 +1406,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>230</v>
+      <c r="A1" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>222</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="K1" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="G1" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="O1" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="T1" s="41"/>
+      <c r="H1" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="T1" s="35"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B2" s="28">
         <v>86886</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="45">
+        <v>46</v>
+      </c>
+      <c r="D2" s="46" t="str">
+        <f>IF(C2&gt;50,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="E2" s="27">
         <v>2</v>
       </c>
-      <c r="D2" s="27" t="str">
-        <f t="shared" ref="D2:D16" si="0">IF(OR(C2=1, C2 = 3, C2 = 5),"A", "B")</f>
+      <c r="F2" s="47" t="str">
+        <f>IF(OR(E2=1, E2 = 3, E2 = 5),"A", "B")</f>
         <v>B</v>
       </c>
-      <c r="E2" s="27" t="str">
-        <f t="shared" ref="E2:E16" si="1">IF(NOT(OR(C2=1,C2=2)),"X","")</f>
+      <c r="G2" s="47" t="str">
+        <f>IF(NOT(OR(E2=1,E2=2)),"X","")</f>
         <v/>
       </c>
-      <c r="F2" s="17">
-        <v>46</v>
-      </c>
-      <c r="G2" s="17" t="str">
-        <f t="shared" ref="G2:G16" si="2">IF(F2&gt;50,"Yes","No")</f>
-        <v>No</v>
-      </c>
-      <c r="H2" s="43">
+      <c r="H2" s="36">
         <v>3.9</v>
       </c>
-      <c r="I2" s="5" t="str">
-        <f t="shared" ref="I2:I16" si="3">IF(AND(B2&gt;75000,H2&gt;4.75),"X","")</f>
+      <c r="I2" s="48" t="str">
+        <f>IF(AND(B2&gt;75000,H2&gt;4.75),"X","")</f>
         <v/>
       </c>
-      <c r="J2" s="5" t="str">
-        <f t="shared" ref="J2:J16" si="4">IF(AND(F2&lt;40,H2&lt;4),"X","")</f>
+      <c r="J2" s="48" t="str">
+        <f>IF(AND(C2&lt;40,H2&lt;4),"X","")</f>
         <v/>
       </c>
-      <c r="K2" s="42">
-        <f t="shared" ref="K2:K16" si="5">IF(H2&gt;4.5,0.1,
-IF(H2&gt;4.25,0.05,
-IF(H2&gt;4,0.03,0)))</f>
+      <c r="K2" s="49" cm="1">
+        <f t="array" ref="K2">_xlfn.IFS(H2&gt;4.5,0.1,
+H2&gt;4.25,0.05,
+H2&gt;4,0.03,
+TRUE,0)</f>
         <v>0</v>
       </c>
       <c r="L2" s="28">
-        <f t="shared" ref="L2:L16" si="6">B2*K2</f>
+        <f>B2*K2</f>
         <v>0</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="O2" s="5">
         <v>0</v>
@@ -1508,649 +1506,691 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B3" s="28">
         <v>74757</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="45">
+        <v>50</v>
+      </c>
+      <c r="D3" s="46" t="str">
+        <f>IF(C3&gt;50,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="E3" s="27">
         <v>4</v>
       </c>
-      <c r="D3" s="27" t="str">
+      <c r="F3" s="47" t="str">
+        <f t="shared" ref="F3:F16" si="0">IF(OR(E3=1, E3 = 3, E3 = 5),"A", "B")</f>
+        <v>B</v>
+      </c>
+      <c r="G3" s="47" t="str">
+        <f t="shared" ref="G3:G16" si="1">IF(NOT(OR(E3=1,E3=2)),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="H3" s="36">
+        <v>4.2</v>
+      </c>
+      <c r="I3" s="48" t="str">
+        <f t="shared" ref="I3:I16" si="2">IF(AND(B3&gt;75000,H3&gt;4.75),"X","")</f>
+        <v/>
+      </c>
+      <c r="J3" s="48" t="str">
+        <f>IF(AND(C3&lt;40,H3&lt;4),"X","")</f>
+        <v/>
+      </c>
+      <c r="K3" s="49" cm="1">
+        <f t="array" ref="K3">_xlfn.IFS(H3&gt;4.5,0.1,
+H3&gt;4.25,0.05,
+H3&gt;4,0.03,
+TRUE,0)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L3" s="28">
+        <f>B3*K3</f>
+        <v>2242.71</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="28">
+        <v>70521</v>
+      </c>
+      <c r="C4" s="45">
+        <v>36</v>
+      </c>
+      <c r="D4" s="46" t="str">
+        <f>IF(C4&gt;50,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="E4" s="27">
+        <v>1</v>
+      </c>
+      <c r="F4" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="G4" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H4" s="36">
+        <v>4.49</v>
+      </c>
+      <c r="I4" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J4" s="48" t="str">
+        <f>IF(AND(C4&lt;40,H4&lt;4),"X","")</f>
+        <v/>
+      </c>
+      <c r="K4" s="49" cm="1">
+        <f t="array" ref="K4">_xlfn.IFS(H4&gt;4.5,0.1,
+H4&gt;4.25,0.05,
+H4&gt;4,0.03,
+TRUE,0)</f>
+        <v>0.05</v>
+      </c>
+      <c r="L4" s="28">
+        <f>B4*K4</f>
+        <v>3526.05</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="28">
+        <v>65367</v>
+      </c>
+      <c r="C5" s="45">
+        <v>58</v>
+      </c>
+      <c r="D5" s="46" t="str">
+        <f>IF(C5&gt;50,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="E5" s="27">
+        <v>3</v>
+      </c>
+      <c r="F5" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="G5" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="H5" s="36">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="I5" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J5" s="48" t="str">
+        <f>IF(AND(C5&lt;40,H5&lt;4),"X","")</f>
+        <v/>
+      </c>
+      <c r="K5" s="49" cm="1">
+        <f t="array" ref="K5">_xlfn.IFS(H5&gt;4.5,0.1,
+H5&gt;4.25,0.05,
+H5&gt;4,0.03,
+TRUE,0)</f>
+        <v>0.05</v>
+      </c>
+      <c r="L5" s="28">
+        <f>B5*K5</f>
+        <v>3268.3500000000004</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="28">
+        <v>89457</v>
+      </c>
+      <c r="C6" s="45">
+        <v>53</v>
+      </c>
+      <c r="D6" s="46" t="str">
+        <f>IF(C6&gt;50,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="E6" s="27">
+        <v>1</v>
+      </c>
+      <c r="F6" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="G6" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H6" s="36">
+        <v>4.92</v>
+      </c>
+      <c r="I6" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="J6" s="48" t="str">
+        <f>IF(AND(C6&lt;40,H6&lt;4),"X","")</f>
+        <v/>
+      </c>
+      <c r="K6" s="49" cm="1">
+        <f t="array" ref="K6">_xlfn.IFS(H6&gt;4.5,0.1,
+H6&gt;4.25,0.05,
+H6&gt;4,0.03,
+TRUE,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="28">
+        <f>B6*K6</f>
+        <v>8945.7000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="28">
+        <v>66174</v>
+      </c>
+      <c r="C7" s="45">
+        <v>47</v>
+      </c>
+      <c r="D7" s="46" t="str">
+        <f>IF(C7&gt;50,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="E7" s="27">
+        <v>4</v>
+      </c>
+      <c r="F7" s="47" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="E3" s="27" t="str">
+      <c r="G7" s="47" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
-      <c r="F3" s="17">
-        <v>50</v>
-      </c>
-      <c r="G3" s="17" t="str">
+      <c r="H7" s="36">
+        <v>4.46</v>
+      </c>
+      <c r="I7" s="48" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J7" s="48" t="str">
+        <f>IF(AND(C7&lt;40,H7&lt;4),"X","")</f>
+        <v/>
+      </c>
+      <c r="K7" s="49" cm="1">
+        <f t="array" ref="K7">_xlfn.IFS(H7&gt;4.5,0.1,
+H7&gt;4.25,0.05,
+H7&gt;4,0.03,
+TRUE,0)</f>
+        <v>0.05</v>
+      </c>
+      <c r="L7" s="28">
+        <f>B7*K7</f>
+        <v>3308.7000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="28">
+        <v>69130</v>
+      </c>
+      <c r="C8" s="45">
+        <v>38</v>
+      </c>
+      <c r="D8" s="46" t="str">
+        <f>IF(C8&gt;50,"Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="H3" s="43">
-        <v>4.2</v>
-      </c>
-      <c r="I3" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="E8" s="27">
+        <v>4</v>
+      </c>
+      <c r="F8" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="G8" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="H8" s="36">
+        <v>3.98</v>
+      </c>
+      <c r="I8" s="48" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J3" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="J8" s="48" t="str">
+        <f>IF(AND(C8&lt;40,H8&lt;4),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K8" s="49" cm="1">
+        <f t="array" ref="K8">_xlfn.IFS(H8&gt;4.5,0.1,
+H8&gt;4.25,0.05,
+H8&gt;4,0.03,
+TRUE,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="28">
+        <f>B8*K8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="28">
+        <v>73088</v>
+      </c>
+      <c r="C9" s="45">
+        <v>45</v>
+      </c>
+      <c r="D9" s="46" t="str">
+        <f>IF(C9&gt;50,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="E9" s="27">
+        <v>6</v>
+      </c>
+      <c r="F9" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="G9" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="H9" s="36">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="I9" s="48" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K3" s="42">
-        <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
-      <c r="L3" s="28">
-        <f t="shared" si="6"/>
-        <v>2242.71</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="28">
-        <v>70521</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="J9" s="48" t="str">
+        <f>IF(AND(C9&lt;40,H9&lt;4),"X","")</f>
+        <v/>
+      </c>
+      <c r="K9" s="49" cm="1">
+        <f t="array" ref="K9">_xlfn.IFS(H9&gt;4.5,0.1,
+H9&gt;4.25,0.05,
+H9&gt;4,0.03,
+TRUE,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="28">
+        <f>B9*K9</f>
+        <v>7308.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="28">
+        <v>99815</v>
+      </c>
+      <c r="C10" s="45">
+        <v>33</v>
+      </c>
+      <c r="D10" s="46" t="str">
+        <f>IF(C10&gt;50,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="E10" s="27">
+        <v>6</v>
+      </c>
+      <c r="F10" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="G10" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="H10" s="36">
+        <v>4.7</v>
+      </c>
+      <c r="I10" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J10" s="48" t="str">
+        <f>IF(AND(C10&lt;40,H10&lt;4),"X","")</f>
+        <v/>
+      </c>
+      <c r="K10" s="49" cm="1">
+        <f t="array" ref="K10">_xlfn.IFS(H10&gt;4.5,0.1,
+H10&gt;4.25,0.05,
+H10&gt;4,0.03,
+TRUE,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="28">
+        <f>B10*K10</f>
+        <v>9981.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="28">
+        <v>85146</v>
+      </c>
+      <c r="C11" s="45">
+        <v>48</v>
+      </c>
+      <c r="D11" s="46" t="str">
+        <f>IF(C11&gt;50,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="E11" s="27">
         <v>1</v>
       </c>
-      <c r="D4" s="27" t="str">
+      <c r="F11" s="47" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="E4" s="27" t="str">
+      <c r="G11" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F4" s="17">
-        <v>36</v>
-      </c>
-      <c r="G4" s="17" t="str">
+      <c r="H11" s="36">
+        <v>4.62</v>
+      </c>
+      <c r="I11" s="48" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="48" t="str">
+        <f>IF(AND(C11&lt;40,H11&lt;4),"X","")</f>
+        <v/>
+      </c>
+      <c r="K11" s="49" cm="1">
+        <f t="array" ref="K11">_xlfn.IFS(H11&gt;4.5,0.1,
+H11&gt;4.25,0.05,
+H11&gt;4,0.03,
+TRUE,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="28">
+        <f>B11*K11</f>
+        <v>8514.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="28">
+        <v>85891</v>
+      </c>
+      <c r="C12" s="45">
+        <v>44</v>
+      </c>
+      <c r="D12" s="46" t="str">
+        <f>IF(C12&gt;50,"Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="H4" s="43">
-        <v>4.49</v>
-      </c>
-      <c r="I4" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J4" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K4" s="42">
-        <f t="shared" si="5"/>
-        <v>0.05</v>
-      </c>
-      <c r="L4" s="28">
-        <f t="shared" si="6"/>
-        <v>3526.05</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5" s="28">
-        <v>65367</v>
-      </c>
-      <c r="C5" s="27">
-        <v>3</v>
-      </c>
-      <c r="D5" s="27" t="str">
+      <c r="E12" s="27">
+        <v>1</v>
+      </c>
+      <c r="F12" s="47" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="E5" s="27" t="str">
+      <c r="G12" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H12" s="36">
+        <v>4.82</v>
+      </c>
+      <c r="I12" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="J12" s="48" t="str">
+        <f>IF(AND(C12&lt;40,H12&lt;4),"X","")</f>
+        <v/>
+      </c>
+      <c r="K12" s="49" cm="1">
+        <f t="array" ref="K12">_xlfn.IFS(H12&gt;4.5,0.1,
+H12&gt;4.25,0.05,
+H12&gt;4,0.03,
+TRUE,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="28">
+        <f>B12*K12</f>
+        <v>8589.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="28">
+        <v>67459</v>
+      </c>
+      <c r="C13" s="45">
+        <v>42</v>
+      </c>
+      <c r="D13" s="46" t="str">
+        <f>IF(C13&gt;50,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="E13" s="27">
+        <v>4</v>
+      </c>
+      <c r="F13" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="G13" s="47" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
-      <c r="F5" s="17">
-        <v>58</v>
-      </c>
-      <c r="G5" s="17" t="str">
+      <c r="H13" s="36">
+        <v>3.79</v>
+      </c>
+      <c r="I13" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="H5" s="43">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="I5" s="5" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J5" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="J13" s="48" t="str">
+        <f>IF(AND(C13&lt;40,H13&lt;4),"X","")</f>
         <v/>
       </c>
-      <c r="K5" s="42">
-        <f t="shared" si="5"/>
-        <v>0.05</v>
-      </c>
-      <c r="L5" s="28">
-        <f t="shared" si="6"/>
-        <v>3268.3500000000004</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B6" s="28">
-        <v>89457</v>
-      </c>
-      <c r="C6" s="27">
-        <v>1</v>
-      </c>
-      <c r="D6" s="27" t="str">
+      <c r="K13" s="49" cm="1">
+        <f t="array" ref="K13">_xlfn.IFS(H13&gt;4.5,0.1,
+H13&gt;4.25,0.05,
+H13&gt;4,0.03,
+TRUE,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="28">
+        <f>B13*K13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="28">
+        <v>75579</v>
+      </c>
+      <c r="C14" s="45">
+        <v>50</v>
+      </c>
+      <c r="D14" s="46" t="str">
+        <f>IF(C14&gt;50,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="E14" s="27">
+        <v>5</v>
+      </c>
+      <c r="F14" s="47" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="E6" s="27" t="str">
+      <c r="G14" s="47" t="str">
         <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="H14" s="36">
+        <v>4.12</v>
+      </c>
+      <c r="I14" s="48" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F6" s="17">
-        <v>53</v>
-      </c>
-      <c r="G6" s="17" t="str">
+      <c r="J14" s="48" t="str">
+        <f>IF(AND(C14&lt;40,H14&lt;4),"X","")</f>
+        <v/>
+      </c>
+      <c r="K14" s="49" cm="1">
+        <f t="array" ref="K14">_xlfn.IFS(H14&gt;4.5,0.1,
+H14&gt;4.25,0.05,
+H14&gt;4,0.03,
+TRUE,0)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L14" s="28">
+        <f>B14*K14</f>
+        <v>2267.37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="28">
+        <v>77430</v>
+      </c>
+      <c r="C15" s="45">
+        <v>54</v>
+      </c>
+      <c r="D15" s="46" t="str">
+        <f>IF(C15&gt;50,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="E15" s="27">
+        <v>5</v>
+      </c>
+      <c r="F15" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="G15" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="H15" s="36">
+        <v>4.63</v>
+      </c>
+      <c r="I15" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="H6" s="43">
-        <v>4.92</v>
-      </c>
-      <c r="I6" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>X</v>
-      </c>
-      <c r="J6" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K6" s="42">
-        <f t="shared" si="5"/>
+      <c r="J15" s="48" t="str">
+        <f>IF(AND(C15&lt;40,H15&lt;4),"X","")</f>
+        <v/>
+      </c>
+      <c r="K15" s="49" cm="1">
+        <f t="array" ref="K15">_xlfn.IFS(H15&gt;4.5,0.1,
+H15&gt;4.25,0.05,
+H15&gt;4,0.03,
+TRUE,0)</f>
         <v>0.1</v>
       </c>
-      <c r="L6" s="28">
-        <f t="shared" si="6"/>
-        <v>8945.7000000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" s="28">
-        <v>66174</v>
-      </c>
-      <c r="C7" s="27">
+      <c r="L15" s="28">
+        <f>B15*K15</f>
+        <v>7743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="28">
+        <v>76150</v>
+      </c>
+      <c r="C16" s="45">
+        <v>33</v>
+      </c>
+      <c r="D16" s="46" t="str">
+        <f>IF(C16&gt;50,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="E16" s="27">
         <v>4</v>
       </c>
-      <c r="D7" s="27" t="str">
+      <c r="F16" s="47" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="E7" s="27" t="str">
+      <c r="G16" s="47" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
-      <c r="F7" s="17">
-        <v>47</v>
-      </c>
-      <c r="G7" s="17" t="str">
+      <c r="H16" s="36">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="I16" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="H7" s="43">
-        <v>4.46</v>
-      </c>
-      <c r="I7" s="5" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J7" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="J16" s="48" t="str">
+        <f>IF(AND(C16&lt;40,H16&lt;4),"X","")</f>
         <v/>
       </c>
-      <c r="K7" s="42">
-        <f t="shared" si="5"/>
-        <v>0.05</v>
-      </c>
-      <c r="L7" s="28">
-        <f t="shared" si="6"/>
-        <v>3308.7000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="28">
-        <v>69130</v>
-      </c>
-      <c r="C8" s="27">
-        <v>4</v>
-      </c>
-      <c r="D8" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>B</v>
-      </c>
-      <c r="E8" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="F8" s="17">
-        <v>38</v>
-      </c>
-      <c r="G8" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="H8" s="43">
-        <v>3.98</v>
-      </c>
-      <c r="I8" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J8" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>X</v>
-      </c>
-      <c r="K8" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="28">
-        <v>73088</v>
-      </c>
-      <c r="C9" s="27">
-        <v>6</v>
-      </c>
-      <c r="D9" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>B</v>
-      </c>
-      <c r="E9" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="F9" s="17">
-        <v>45</v>
-      </c>
-      <c r="G9" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="H9" s="43">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="I9" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J9" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K9" s="42">
-        <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="L9" s="28">
-        <f t="shared" si="6"/>
-        <v>7308.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10" s="28">
-        <v>99815</v>
-      </c>
-      <c r="C10" s="27">
-        <v>6</v>
-      </c>
-      <c r="D10" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>B</v>
-      </c>
-      <c r="E10" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="F10" s="17">
-        <v>33</v>
-      </c>
-      <c r="G10" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="H10" s="43">
-        <v>4.7</v>
-      </c>
-      <c r="I10" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J10" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K10" s="42">
-        <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="L10" s="28">
-        <f t="shared" si="6"/>
-        <v>9981.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B11" s="28">
-        <v>85146</v>
-      </c>
-      <c r="C11" s="27">
-        <v>1</v>
-      </c>
-      <c r="D11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>A</v>
-      </c>
-      <c r="E11" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F11" s="17">
-        <v>48</v>
-      </c>
-      <c r="G11" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="H11" s="43">
-        <v>4.62</v>
-      </c>
-      <c r="I11" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J11" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K11" s="42">
-        <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="L11" s="28">
-        <f t="shared" si="6"/>
-        <v>8514.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B12" s="28">
-        <v>85891</v>
-      </c>
-      <c r="C12" s="27">
-        <v>1</v>
-      </c>
-      <c r="D12" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>A</v>
-      </c>
-      <c r="E12" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F12" s="17">
-        <v>44</v>
-      </c>
-      <c r="G12" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="H12" s="43">
-        <v>4.82</v>
-      </c>
-      <c r="I12" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>X</v>
-      </c>
-      <c r="J12" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K12" s="42">
-        <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="L12" s="28">
-        <f t="shared" si="6"/>
-        <v>8589.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="28">
-        <v>67459</v>
-      </c>
-      <c r="C13" s="27">
-        <v>4</v>
-      </c>
-      <c r="D13" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>B</v>
-      </c>
-      <c r="E13" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="F13" s="17">
-        <v>42</v>
-      </c>
-      <c r="G13" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="H13" s="43">
-        <v>3.79</v>
-      </c>
-      <c r="I13" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J13" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K13" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14" s="28">
-        <v>75579</v>
-      </c>
-      <c r="C14" s="27">
-        <v>5</v>
-      </c>
-      <c r="D14" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>A</v>
-      </c>
-      <c r="E14" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="F14" s="17">
-        <v>50</v>
-      </c>
-      <c r="G14" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="H14" s="43">
-        <v>4.12</v>
-      </c>
-      <c r="I14" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J14" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K14" s="42">
-        <f t="shared" si="5"/>
+      <c r="K16" s="49" cm="1">
+        <f t="array" ref="K16">_xlfn.IFS(H16&gt;4.5,0.1,
+H16&gt;4.25,0.05,
+H16&gt;4,0.03,
+TRUE,0)</f>
         <v>0.03</v>
       </c>
-      <c r="L14" s="28">
-        <f t="shared" si="6"/>
-        <v>2267.37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B15" s="28">
-        <v>77430</v>
-      </c>
-      <c r="C15" s="27">
-        <v>5</v>
-      </c>
-      <c r="D15" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>A</v>
-      </c>
-      <c r="E15" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="F15" s="17">
-        <v>54</v>
-      </c>
-      <c r="G15" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="H15" s="43">
-        <v>4.63</v>
-      </c>
-      <c r="I15" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J15" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K15" s="42">
-        <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="L15" s="28">
-        <f t="shared" si="6"/>
-        <v>7743</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="28">
-        <v>76150</v>
-      </c>
-      <c r="C16" s="27">
-        <v>4</v>
-      </c>
-      <c r="D16" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>B</v>
-      </c>
-      <c r="E16" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="F16" s="17">
-        <v>33</v>
-      </c>
-      <c r="G16" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="H16" s="43">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="I16" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J16" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K16" s="42">
-        <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
       <c r="L16" s="28">
-        <f t="shared" si="6"/>
+        <f>B16*K16</f>
         <v>2284.5</v>
       </c>
     </row>
@@ -2162,2541 +2202,300 @@
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
     </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I19" s="42"/>
+    </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B21" s="16">
-        <f>SUMIF(D2:D16,"A",B2:B16)</f>
+        <f>SUMIF(F2:F16,"A",B2:B16)</f>
         <v>549391</v>
+      </c>
+      <c r="C21" s="51" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B21)</f>
+        <v>=SUMIF(F2:F16,"A",B2:B16)</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B22" s="5">
-        <f>COUNTIF(F2:F16,"&gt;50")</f>
+        <f>COUNTIF(C2:C16,"&gt;50")</f>
         <v>3</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="51" t="str">
+        <f t="shared" ref="C22:C28" ca="1" si="3">_xlfn.FORMULATEXT(B22)</f>
+        <v>=COUNTIF(C2:C16,"&gt;50")</v>
+      </c>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B23" s="16">
         <f>AVERAGEIF(H2:H16,"&gt; 4.7",L2:L16)</f>
         <v>8281.1999999999989</v>
       </c>
+      <c r="C23" s="51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=AVERAGEIF(H2:H16,"&gt; 4.7",L2:L16)</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B24" s="16">
         <f>AVERAGEIF(H2:H16,"&gt;= 4.7",L2:L16)</f>
         <v>8706.2749999999996</v>
       </c>
+      <c r="C24" s="51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=AVERAGEIF(H2:H16,"&gt;= 4.7",L2:L16)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C25" s="51"/>
     </row>
     <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B26" s="5">
-        <f>COUNTIFS(L2:L16,"&gt;5000",H2:H16,"&gt;4.5",F2:F16,"&gt;50")</f>
+        <f>COUNTIFS(L2:L16,"&gt;5000",H2:H16,"&gt;4.5",C2:C16,"&gt;50")</f>
         <v>2</v>
+      </c>
+      <c r="C26" s="51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=COUNTIFS(L2:L16,"&gt;5000",H2:H16,"&gt;4.5",C2:C16,"&gt;50")</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="14" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B27" s="16">
-        <f>SUMIFS(L2:L16,C2:C16,4,B2:B16,"&gt;50000")</f>
+        <f>SUMIFS(L2:L16,E2:E16,4,B2:B16,"&gt;50000")</f>
         <v>7835.91</v>
+      </c>
+      <c r="C27" s="51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=SUMIFS(L2:L16,E2:E16,4,B2:B16,"&gt;50000")</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="14" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B28" s="16">
-        <f>AVERAGEIFS(L2:L16,F2:F16,"&lt;50",H2:H16,"&gt;4.0")</f>
+        <f>AVERAGEIFS(L2:L16,C2:C16,"&lt;50",H2:H16,"&gt;4.0")</f>
         <v>6216.1785714285716</v>
       </c>
+      <c r="C28" s="51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=AVERAGEIFS(L2:L16,C2:C16,"&lt;50",H2:H16,"&gt;4.0")</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C29" s="51"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C30" s="27"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C31" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96677E9-1D62-46B4-BFCD-FA9CBAF762C8}">
-  <dimension ref="A1:P49"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C86585-EB02-412A-827E-EEBA7C051A3A}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE6189F-D46F-4ED2-84CB-7313249F3EE6}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="31.81640625" style="5" customWidth="1"/>
-    <col min="4" max="6" width="9.1796875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.40625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.40625" style="28" customWidth="1"/>
-    <col min="10" max="10" width="12.953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.40625" style="27" customWidth="1"/>
-    <col min="12" max="12" width="13.6328125" style="27" customWidth="1"/>
-    <col min="13" max="13" width="9.86328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6" style="27"/>
-    <col min="16" max="16384" width="6" style="5"/>
+    <col min="2" max="2" width="15.40625" customWidth="1"/>
+    <col min="3" max="3" width="17.31640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="P1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="5" t="str">
-        <f t="shared" ref="B2:B42" si="0">IF(A2="P","Pixar","Dreamworks")</f>
-        <v>Pixar</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="29">
-        <v>35025</v>
-      </c>
-      <c r="E2" s="34">
-        <f t="shared" ref="E2:E42" si="1">MONTH(D2)</f>
-        <v>11</v>
-      </c>
-      <c r="F2" s="33">
-        <f t="shared" ref="F2:F42" ca="1" si="2">YEARFRAC(D2,TODAY())</f>
-        <v>26.95</v>
-      </c>
-      <c r="G2" s="28">
-        <v>30000000</v>
-      </c>
-      <c r="H2" s="28">
-        <v>361958736</v>
-      </c>
-      <c r="I2" s="28">
-        <f t="shared" ref="I2:I42" si="3">ROUND(H2,-4)</f>
-        <v>361960000</v>
-      </c>
-      <c r="J2" s="28">
-        <v>331958736</v>
-      </c>
-      <c r="K2" s="27">
-        <v>100</v>
-      </c>
-      <c r="L2" s="27">
-        <v>92</v>
-      </c>
-      <c r="M2" s="27">
-        <v>96</v>
-      </c>
-      <c r="N2" s="27" t="str">
-        <f t="shared" ref="N2:N42" si="4">IF(M2  &gt;=  90,"A",
-IF(M2  &gt;=  80,"B",
-IF(M2  &gt;=  70, "C",
-IF(M2  &gt;=  60, "D", "F"))))</f>
+      <c r="C1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A2">
+        <v>89</v>
+      </c>
+      <c r="B2" t="str">
+        <f>IF(A2 &gt;= 90, "A",
+IF(A2&gt;=80, "B",
+IF(A2&gt;=70, "C",
+IF(A2&gt;=60, "D",
+"F"))))</f>
+        <v>B</v>
+      </c>
+      <c r="C2" t="str" cm="1">
+        <f t="array" ref="C2">_xlfn.IFS(A2 &gt;= 90,"A",
+A2 &gt;= 80,"B",
+A2 &gt;= 70,"C",
+A2 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A3">
+        <v>61</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B8" si="0">IF(A3 &gt;= 90, "A",
+IF(A3&gt;=80, "B",
+IF(A3&gt;=70, "C",
+IF(A3&gt;=60, "D",
+"F"))))</f>
+        <v>D</v>
+      </c>
+      <c r="C3" t="str" cm="1">
+        <f t="array" ref="C3">_xlfn.IFS(A3 &gt;= 90,"A",
+A3 &gt;= 80,"B",
+A3 &gt;= 70,"C",
+A3 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A4">
+        <v>72</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="C4" t="str" cm="1">
+        <f t="array" ref="C4">_xlfn.IFS(A4 &gt;= 90,"A",
+A4 &gt;= 80,"B",
+A4 &gt;= 70,"C",
+A4 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A5">
+        <v>95</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="O2" s="27" t="str">
-        <f t="shared" ref="O2:O42" si="5">IF(AND(I2&gt;500000000,M2&gt;90),"Hit","")</f>
-        <v/>
-      </c>
-      <c r="P2" s="5" t="str">
-        <f t="shared" ref="P2:P42" si="6">IF(OR(M2&lt;50,H2&lt;350000000),"Dud"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="5" t="str">
+      <c r="C5" t="str" cm="1">
+        <f t="array" ref="C5">_xlfn.IFS(A5 &gt;= 90,"A",
+A5 &gt;= 80,"B",
+A5 &gt;= 70,"C",
+A5 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>Pixar</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="29">
-        <v>36124</v>
-      </c>
-      <c r="E3" s="34">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F3" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>23.941666666666666</v>
-      </c>
-      <c r="G3" s="28">
-        <v>120000000</v>
-      </c>
-      <c r="H3" s="28">
-        <v>363398565</v>
-      </c>
-      <c r="I3" s="28">
-        <f t="shared" si="3"/>
-        <v>363400000</v>
-      </c>
-      <c r="J3" s="28">
-        <v>243398565</v>
-      </c>
-      <c r="K3" s="27">
-        <v>92</v>
-      </c>
-      <c r="L3" s="27">
-        <v>77</v>
-      </c>
-      <c r="M3" s="27">
-        <v>84.5</v>
-      </c>
-      <c r="N3" s="27" t="str">
-        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="C6" t="str" cm="1">
+        <f t="array" ref="C6">_xlfn.IFS(A6 &gt;= 90,"A",
+A6 &gt;= 80,"B",
+A6 &gt;= 70,"C",
+A6 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A7">
+        <v>87</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="O3" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P3" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="5" t="str">
+      <c r="C7" t="str" cm="1">
+        <f t="array" ref="C7">_xlfn.IFS(A7 &gt;= 90,"A",
+A7 &gt;= 80,"B",
+A7 &gt;= 70,"C",
+A7 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A8">
+        <v>62</v>
+      </c>
+      <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="29">
-        <v>36147</v>
-      </c>
-      <c r="E4" s="34">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="F4" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>23.877777777777776</v>
-      </c>
-      <c r="G4" s="28">
-        <v>70000000</v>
-      </c>
-      <c r="H4" s="28">
-        <v>218613188</v>
-      </c>
-      <c r="I4" s="28">
-        <f t="shared" si="3"/>
-        <v>218610000</v>
-      </c>
-      <c r="J4" s="28">
-        <v>148613188</v>
-      </c>
-      <c r="K4" s="27">
-        <v>79</v>
-      </c>
-      <c r="L4" s="27">
-        <v>64</v>
-      </c>
-      <c r="M4" s="27">
-        <v>71.5</v>
-      </c>
-      <c r="N4" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>C</v>
-      </c>
-      <c r="O4" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P4" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Dud</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Pixar</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="29">
-        <v>36488</v>
-      </c>
-      <c r="E5" s="34">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F5" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>22.944444444444443</v>
-      </c>
-      <c r="G5" s="28">
-        <v>90000000</v>
-      </c>
-      <c r="H5" s="28">
-        <v>485015179</v>
-      </c>
-      <c r="I5" s="28">
-        <f t="shared" si="3"/>
-        <v>485020000</v>
-      </c>
-      <c r="J5" s="28">
-        <v>395015179</v>
-      </c>
-      <c r="K5" s="27">
-        <v>100</v>
-      </c>
-      <c r="L5" s="27">
-        <v>88</v>
-      </c>
-      <c r="M5" s="27">
-        <v>94</v>
-      </c>
-      <c r="N5" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="O5" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P5" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="29">
-        <v>36616</v>
-      </c>
-      <c r="E6" s="34">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F6" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>22.594444444444445</v>
-      </c>
-      <c r="G6" s="28">
-        <v>95000000</v>
-      </c>
-      <c r="H6" s="28">
-        <v>76432727</v>
-      </c>
-      <c r="I6" s="28">
-        <f t="shared" si="3"/>
-        <v>76430000</v>
-      </c>
-      <c r="J6" s="28">
-        <v>-18567273</v>
-      </c>
-      <c r="K6" s="27">
-        <v>49</v>
-      </c>
-      <c r="L6" s="27">
-        <v>51</v>
-      </c>
-      <c r="M6" s="27">
-        <v>50</v>
-      </c>
-      <c r="N6" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="O6" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P6" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Dud</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="29">
-        <v>36700</v>
-      </c>
-      <c r="E7" s="34">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F7" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>22.363888888888887</v>
-      </c>
-      <c r="G7" s="28">
-        <v>45000000</v>
-      </c>
-      <c r="H7" s="28">
-        <v>224834564</v>
-      </c>
-      <c r="I7" s="28">
-        <f t="shared" si="3"/>
-        <v>224830000</v>
-      </c>
-      <c r="J7" s="28">
-        <v>179834564</v>
-      </c>
-      <c r="K7" s="27">
-        <v>97</v>
-      </c>
-      <c r="L7" s="27">
-        <v>88</v>
-      </c>
-      <c r="M7" s="27">
-        <v>92.5</v>
-      </c>
-      <c r="N7" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="O7" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P7" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Dud</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="29">
-        <v>37029</v>
-      </c>
-      <c r="E8" s="34">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F8" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>21.461111111111112</v>
-      </c>
-      <c r="G8" s="28">
-        <v>60000000</v>
-      </c>
-      <c r="H8" s="28">
-        <v>484409218</v>
-      </c>
-      <c r="I8" s="28">
-        <f t="shared" si="3"/>
-        <v>484410000</v>
-      </c>
-      <c r="J8" s="28">
-        <v>424409218</v>
-      </c>
-      <c r="K8" s="27">
-        <v>88</v>
-      </c>
-      <c r="L8" s="27">
-        <v>84</v>
-      </c>
-      <c r="M8" s="27">
-        <v>86</v>
-      </c>
-      <c r="N8" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="O8" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P8" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Pixar</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="29">
-        <v>37197</v>
-      </c>
-      <c r="E9" s="34">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F9" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>21.005555555555556</v>
-      </c>
-      <c r="G9" s="28">
-        <v>115000000</v>
-      </c>
-      <c r="H9" s="28">
-        <v>562816256</v>
-      </c>
-      <c r="I9" s="28">
-        <f t="shared" si="3"/>
-        <v>562820000</v>
-      </c>
-      <c r="J9" s="28">
-        <v>447816256</v>
-      </c>
-      <c r="K9" s="27">
-        <v>96</v>
-      </c>
-      <c r="L9" s="27">
-        <v>78</v>
-      </c>
-      <c r="M9" s="27">
-        <v>87</v>
-      </c>
-      <c r="N9" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="O9" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P9" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="29">
-        <v>37400</v>
-      </c>
-      <c r="E10" s="34">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F10" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>20.444444444444443</v>
-      </c>
-      <c r="G10" s="28">
-        <v>80000000</v>
-      </c>
-      <c r="H10" s="28">
-        <v>122563539</v>
-      </c>
-      <c r="I10" s="28">
-        <f t="shared" si="3"/>
-        <v>122560000</v>
-      </c>
-      <c r="J10" s="28">
-        <v>42563539</v>
-      </c>
-      <c r="K10" s="27">
-        <v>69</v>
-      </c>
-      <c r="L10" s="27">
-        <v>52</v>
-      </c>
-      <c r="M10" s="27">
-        <v>60.5</v>
-      </c>
-      <c r="N10" s="27" t="str">
-        <f t="shared" si="4"/>
         <v>D</v>
       </c>
-      <c r="O10" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P10" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Dud</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Pixar</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="29">
-        <v>37771</v>
-      </c>
-      <c r="E11" s="34">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F11" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>19.427777777777777</v>
-      </c>
-      <c r="G11" s="28">
-        <v>94000000</v>
-      </c>
-      <c r="H11" s="28">
-        <v>936743261</v>
-      </c>
-      <c r="I11" s="28">
-        <f t="shared" si="3"/>
-        <v>936740000</v>
-      </c>
-      <c r="J11" s="28">
-        <v>842743261</v>
-      </c>
-      <c r="K11" s="27">
-        <v>99</v>
-      </c>
-      <c r="L11" s="27">
-        <v>90</v>
-      </c>
-      <c r="M11" s="27">
-        <v>94.5</v>
-      </c>
-      <c r="N11" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="O11" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>Hit</v>
-      </c>
-      <c r="P11" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="29">
-        <v>37804</v>
-      </c>
-      <c r="E12" s="34">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F12" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>19.338888888888889</v>
-      </c>
-      <c r="G12" s="28">
-        <v>60000000</v>
-      </c>
-      <c r="H12" s="28">
-        <v>80767884</v>
-      </c>
-      <c r="I12" s="28">
-        <f t="shared" si="3"/>
-        <v>80770000</v>
-      </c>
-      <c r="J12" s="28">
-        <v>20767884</v>
-      </c>
-      <c r="K12" s="27">
-        <v>45</v>
-      </c>
-      <c r="L12" s="27">
-        <v>48</v>
-      </c>
-      <c r="M12" s="27">
-        <v>46.5</v>
-      </c>
-      <c r="N12" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="O12" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P12" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Dud</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" s="29">
-        <v>38126</v>
-      </c>
-      <c r="E13" s="34">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F13" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>18.458333333333332</v>
-      </c>
-      <c r="G13" s="28">
-        <v>150000000</v>
-      </c>
-      <c r="H13" s="28">
-        <v>919838758</v>
-      </c>
-      <c r="I13" s="28">
-        <f t="shared" si="3"/>
-        <v>919840000</v>
-      </c>
-      <c r="J13" s="28">
-        <v>769838758</v>
-      </c>
-      <c r="K13" s="27">
-        <v>89</v>
-      </c>
-      <c r="L13" s="27">
-        <v>75</v>
-      </c>
-      <c r="M13" s="27">
-        <v>82</v>
-      </c>
-      <c r="N13" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="O13" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P13" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D14" s="29">
-        <v>38261</v>
-      </c>
-      <c r="E14" s="34">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F14" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>18.091666666666665</v>
-      </c>
-      <c r="G14" s="28">
-        <v>75000000</v>
-      </c>
-      <c r="H14" s="28">
-        <v>367275019</v>
-      </c>
-      <c r="I14" s="28">
-        <f t="shared" si="3"/>
-        <v>367280000</v>
-      </c>
-      <c r="J14" s="28">
-        <v>292275019</v>
-      </c>
-      <c r="K14" s="27">
-        <v>36</v>
-      </c>
-      <c r="L14" s="27">
-        <v>48</v>
-      </c>
-      <c r="M14" s="27">
-        <v>42</v>
-      </c>
-      <c r="N14" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="O14" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P14" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Dud</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Pixar</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="29">
-        <v>38296</v>
-      </c>
-      <c r="E15" s="34">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F15" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>17.997222222222224</v>
-      </c>
-      <c r="G15" s="28">
-        <v>92000000</v>
-      </c>
-      <c r="H15" s="28">
-        <v>631442092</v>
-      </c>
-      <c r="I15" s="28">
-        <f t="shared" si="3"/>
-        <v>631440000</v>
-      </c>
-      <c r="J15" s="28">
-        <v>539442092</v>
-      </c>
-      <c r="K15" s="27">
-        <v>97</v>
-      </c>
-      <c r="L15" s="27">
-        <v>90</v>
-      </c>
-      <c r="M15" s="27">
-        <v>93.5</v>
-      </c>
-      <c r="N15" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="O15" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>Hit</v>
-      </c>
-      <c r="P15" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="29">
-        <v>38499</v>
-      </c>
-      <c r="E16" s="34">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F16" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>17.43611111111111</v>
-      </c>
-      <c r="G16" s="28">
-        <v>75000000</v>
-      </c>
-      <c r="H16" s="28">
-        <v>532680671</v>
-      </c>
-      <c r="I16" s="28">
-        <f t="shared" si="3"/>
-        <v>532680000</v>
-      </c>
-      <c r="J16" s="28">
-        <v>457680671</v>
-      </c>
-      <c r="K16" s="27">
-        <v>55</v>
-      </c>
-      <c r="L16" s="27">
-        <v>57</v>
-      </c>
-      <c r="M16" s="27">
-        <v>56</v>
-      </c>
-      <c r="N16" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="O16" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P16" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="29">
-        <v>38632</v>
-      </c>
-      <c r="E17" s="34">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F17" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>17.074999999999999</v>
-      </c>
-      <c r="G17" s="28">
-        <v>30000000</v>
-      </c>
-      <c r="H17" s="28">
-        <v>192610372</v>
-      </c>
-      <c r="I17" s="28">
-        <f t="shared" si="3"/>
-        <v>192610000</v>
-      </c>
-      <c r="J17" s="28">
-        <v>162610372</v>
-      </c>
-      <c r="K17" s="27">
-        <v>95</v>
-      </c>
-      <c r="L17" s="27">
-        <v>87</v>
-      </c>
-      <c r="M17" s="27">
-        <v>91</v>
-      </c>
-      <c r="N17" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="O17" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P17" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Dud</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="29">
-        <v>38856</v>
-      </c>
-      <c r="E18" s="34">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F18" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.458333333333332</v>
-      </c>
-      <c r="G18" s="28">
-        <v>80000000</v>
-      </c>
-      <c r="H18" s="28">
-        <v>336002996</v>
-      </c>
-      <c r="I18" s="28">
-        <f t="shared" si="3"/>
-        <v>336000000</v>
-      </c>
-      <c r="J18" s="28">
-        <v>256002996</v>
-      </c>
-      <c r="K18" s="27">
-        <v>75</v>
-      </c>
-      <c r="L18" s="27">
-        <v>67</v>
-      </c>
-      <c r="M18" s="27">
-        <v>71</v>
-      </c>
-      <c r="N18" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>C</v>
-      </c>
-      <c r="O18" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P18" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Dud</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Pixar</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="29">
-        <v>38877</v>
-      </c>
-      <c r="E19" s="34">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F19" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.402777777777779</v>
-      </c>
-      <c r="G19" s="28">
-        <v>120000000</v>
-      </c>
-      <c r="H19" s="28">
-        <v>461983149</v>
-      </c>
-      <c r="I19" s="28">
-        <f t="shared" si="3"/>
-        <v>461980000</v>
-      </c>
-      <c r="J19" s="28">
-        <v>341983149</v>
-      </c>
-      <c r="K19" s="27">
-        <v>74</v>
-      </c>
-      <c r="L19" s="27">
-        <v>73</v>
-      </c>
-      <c r="M19" s="27">
-        <v>73.5</v>
-      </c>
-      <c r="N19" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>C</v>
-      </c>
-      <c r="O19" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P19" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" s="29">
-        <v>39024</v>
-      </c>
-      <c r="E20" s="34">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F20" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.002777777777776</v>
-      </c>
-      <c r="G20" s="28">
-        <v>149000000</v>
-      </c>
-      <c r="H20" s="28">
-        <v>178120010</v>
-      </c>
-      <c r="I20" s="28">
-        <f t="shared" si="3"/>
-        <v>178120000</v>
-      </c>
-      <c r="J20" s="28">
-        <v>29120010</v>
-      </c>
-      <c r="K20" s="27">
-        <v>72</v>
-      </c>
-      <c r="L20" s="27">
-        <v>74</v>
-      </c>
-      <c r="M20" s="27">
-        <v>73</v>
-      </c>
-      <c r="N20" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>C</v>
-      </c>
-      <c r="O20" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P20" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Dud</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="29">
-        <v>39220</v>
-      </c>
-      <c r="E21" s="34">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F21" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.46111111111111</v>
-      </c>
-      <c r="G21" s="28">
-        <v>160000000</v>
-      </c>
-      <c r="H21" s="28">
-        <v>798958162</v>
-      </c>
-      <c r="I21" s="28">
-        <f t="shared" si="3"/>
-        <v>798960000</v>
-      </c>
-      <c r="J21" s="28">
-        <v>638958162</v>
-      </c>
-      <c r="K21" s="27">
-        <v>40</v>
-      </c>
-      <c r="L21" s="27">
-        <v>58</v>
-      </c>
-      <c r="M21" s="27">
-        <v>49</v>
-      </c>
-      <c r="N21" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="O21" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P21" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Dud</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Pixar</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="29">
-        <v>39262</v>
-      </c>
-      <c r="E22" s="34">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F22" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.347222222222221</v>
-      </c>
-      <c r="G22" s="28">
-        <v>150000000</v>
-      </c>
-      <c r="H22" s="28">
-        <v>623722818</v>
-      </c>
-      <c r="I22" s="28">
-        <f t="shared" si="3"/>
-        <v>623720000</v>
-      </c>
-      <c r="J22" s="28">
-        <v>473722818</v>
-      </c>
-      <c r="K22" s="27">
-        <v>96</v>
-      </c>
-      <c r="L22" s="27">
-        <v>96</v>
-      </c>
-      <c r="M22" s="27">
-        <v>96</v>
-      </c>
-      <c r="N22" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="O22" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>Hit</v>
-      </c>
-      <c r="P22" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="29">
-        <v>39388</v>
-      </c>
-      <c r="E23" s="34">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F23" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.005555555555556</v>
-      </c>
-      <c r="G23" s="28">
-        <v>150000000</v>
-      </c>
-      <c r="H23" s="28">
-        <v>287594577</v>
-      </c>
-      <c r="I23" s="28">
-        <f t="shared" si="3"/>
-        <v>287590000</v>
-      </c>
-      <c r="J23" s="28">
-        <v>137594577</v>
-      </c>
-      <c r="K23" s="27">
-        <v>51</v>
-      </c>
-      <c r="L23" s="27">
-        <v>54</v>
-      </c>
-      <c r="M23" s="27">
-        <v>52.5</v>
-      </c>
-      <c r="N23" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="O23" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P23" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Dud</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A24" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="29">
-        <v>39605</v>
-      </c>
-      <c r="E24" s="34">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F24" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>14.411111111111111</v>
-      </c>
-      <c r="G24" s="28">
-        <v>130000000</v>
-      </c>
-      <c r="H24" s="28">
-        <v>631744560</v>
-      </c>
-      <c r="I24" s="28">
-        <f t="shared" si="3"/>
-        <v>631740000</v>
-      </c>
-      <c r="J24" s="28">
-        <v>501744560</v>
-      </c>
-      <c r="K24" s="27">
-        <v>87</v>
-      </c>
-      <c r="L24" s="27">
-        <v>73</v>
-      </c>
-      <c r="M24" s="27">
-        <v>80</v>
-      </c>
-      <c r="N24" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="O24" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P24" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A25" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Pixar</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="29">
-        <v>39626</v>
-      </c>
-      <c r="E25" s="34">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F25" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>14.352777777777778</v>
-      </c>
-      <c r="G25" s="28">
-        <v>180000000</v>
-      </c>
-      <c r="H25" s="28">
-        <v>521311860</v>
-      </c>
-      <c r="I25" s="28">
-        <f t="shared" si="3"/>
-        <v>521310000</v>
-      </c>
-      <c r="J25" s="28">
-        <v>341311860</v>
-      </c>
-      <c r="K25" s="27">
-        <v>96</v>
-      </c>
-      <c r="L25" s="27">
-        <v>94</v>
-      </c>
-      <c r="M25" s="27">
-        <v>95</v>
-      </c>
-      <c r="N25" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="O25" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>Hit</v>
-      </c>
-      <c r="P25" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A26" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="29">
-        <v>39759</v>
-      </c>
-      <c r="E26" s="34">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F26" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>13.991666666666667</v>
-      </c>
-      <c r="G26" s="28">
-        <v>150000000</v>
-      </c>
-      <c r="H26" s="28">
-        <v>603900354</v>
-      </c>
-      <c r="I26" s="28">
-        <f t="shared" si="3"/>
-        <v>603900000</v>
-      </c>
-      <c r="J26" s="28">
-        <v>453900354</v>
-      </c>
-      <c r="K26" s="27">
-        <v>64</v>
-      </c>
-      <c r="L26" s="27">
-        <v>61</v>
-      </c>
-      <c r="M26" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="N26" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C8" t="str" cm="1">
+        <f t="array" ref="C8">_xlfn.IFS(A8 &gt;= 90,"A",
+A8 &gt;= 80,"B",
+A8 &gt;= 70,"C",
+A8 &gt;= 60,"D",
+TRUE,"F")</f>
         <v>D</v>
       </c>
-      <c r="O26" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P26" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A27" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="29">
-        <v>39899</v>
-      </c>
-      <c r="E27" s="34">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F27" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>13.602777777777778</v>
-      </c>
-      <c r="G27" s="28">
-        <v>175000000</v>
-      </c>
-      <c r="H27" s="28">
-        <v>381509870</v>
-      </c>
-      <c r="I27" s="28">
-        <f t="shared" si="3"/>
-        <v>381510000</v>
-      </c>
-      <c r="J27" s="28">
-        <v>206509870</v>
-      </c>
-      <c r="K27" s="27">
-        <v>72</v>
-      </c>
-      <c r="L27" s="27">
-        <v>56</v>
-      </c>
-      <c r="M27" s="27">
-        <v>64</v>
-      </c>
-      <c r="N27" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>D</v>
-      </c>
-      <c r="O27" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P27" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A28" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Pixar</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="29">
-        <v>39962</v>
-      </c>
-      <c r="E28" s="34">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F28" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>13.430555555555555</v>
-      </c>
-      <c r="G28" s="28">
-        <v>175000000</v>
-      </c>
-      <c r="H28" s="28">
-        <v>731342744</v>
-      </c>
-      <c r="I28" s="28">
-        <f t="shared" si="3"/>
-        <v>731340000</v>
-      </c>
-      <c r="J28" s="28">
-        <v>556342744</v>
-      </c>
-      <c r="K28" s="27">
-        <v>98</v>
-      </c>
-      <c r="L28" s="27">
-        <v>88</v>
-      </c>
-      <c r="M28" s="27">
-        <v>93</v>
-      </c>
-      <c r="N28" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="O28" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>Hit</v>
-      </c>
-      <c r="P28" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A29" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="29">
-        <v>40263</v>
-      </c>
-      <c r="E29" s="34">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F29" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.605555555555556</v>
-      </c>
-      <c r="G29" s="28">
-        <v>165000000</v>
-      </c>
-      <c r="H29" s="28">
-        <v>494878759</v>
-      </c>
-      <c r="I29" s="28">
-        <f t="shared" si="3"/>
-        <v>494880000</v>
-      </c>
-      <c r="J29" s="28">
-        <v>329878759</v>
-      </c>
-      <c r="K29" s="27">
-        <v>98</v>
-      </c>
-      <c r="L29" s="27">
-        <v>74</v>
-      </c>
-      <c r="M29" s="27">
-        <v>86</v>
-      </c>
-      <c r="N29" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="O29" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P29" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A30" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="29">
-        <v>40319</v>
-      </c>
-      <c r="E30" s="34">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F30" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.452777777777778</v>
-      </c>
-      <c r="G30" s="28">
-        <v>165000000</v>
-      </c>
-      <c r="H30" s="28">
-        <v>752600867</v>
-      </c>
-      <c r="I30" s="28">
-        <f t="shared" si="3"/>
-        <v>752600000</v>
-      </c>
-      <c r="J30" s="28">
-        <v>587600867</v>
-      </c>
-      <c r="K30" s="27">
-        <v>58</v>
-      </c>
-      <c r="L30" s="27">
-        <v>58</v>
-      </c>
-      <c r="M30" s="27">
-        <v>58</v>
-      </c>
-      <c r="N30" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="O30" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P30" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A31" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Pixar</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="29">
-        <v>40347</v>
-      </c>
-      <c r="E31" s="34">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F31" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.377777777777778</v>
-      </c>
-      <c r="G31" s="28">
-        <v>200000000</v>
-      </c>
-      <c r="H31" s="28">
-        <v>1063171911</v>
-      </c>
-      <c r="I31" s="28">
-        <f t="shared" si="3"/>
-        <v>1063170000</v>
-      </c>
-      <c r="J31" s="28">
-        <v>863171911</v>
-      </c>
-      <c r="K31" s="27">
-        <v>99</v>
-      </c>
-      <c r="L31" s="27">
-        <v>92</v>
-      </c>
-      <c r="M31" s="27">
-        <v>95.5</v>
-      </c>
-      <c r="N31" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="O31" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>Hit</v>
-      </c>
-      <c r="P31" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A32" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" s="29">
-        <v>40487</v>
-      </c>
-      <c r="E32" s="34">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F32" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.997222222222222</v>
-      </c>
-      <c r="G32" s="28">
-        <v>130000000</v>
-      </c>
-      <c r="H32" s="28">
-        <v>321885765</v>
-      </c>
-      <c r="I32" s="28">
-        <f t="shared" si="3"/>
-        <v>321890000</v>
-      </c>
-      <c r="J32" s="28">
-        <v>191885765</v>
-      </c>
-      <c r="K32" s="27">
-        <v>73</v>
-      </c>
-      <c r="L32" s="27">
-        <v>63</v>
-      </c>
-      <c r="M32" s="27">
-        <v>68</v>
-      </c>
-      <c r="N32" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>D</v>
-      </c>
-      <c r="O32" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P32" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Dud</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A33" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="29">
-        <v>40689</v>
-      </c>
-      <c r="E33" s="34">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F33" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.438888888888888</v>
-      </c>
-      <c r="G33" s="28">
-        <v>150000000</v>
-      </c>
-      <c r="H33" s="28">
-        <v>665692281</v>
-      </c>
-      <c r="I33" s="28">
-        <f t="shared" si="3"/>
-        <v>665690000</v>
-      </c>
-      <c r="J33" s="28">
-        <v>515692281</v>
-      </c>
-      <c r="K33" s="27">
-        <v>81</v>
-      </c>
-      <c r="L33" s="27">
-        <v>67</v>
-      </c>
-      <c r="M33" s="27">
-        <v>74</v>
-      </c>
-      <c r="N33" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>C</v>
-      </c>
-      <c r="O33" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P33" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A34" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B34" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Pixar</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="29">
-        <v>40718</v>
-      </c>
-      <c r="E34" s="34">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F34" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.361111111111111</v>
-      </c>
-      <c r="G34" s="28">
-        <v>200000000</v>
-      </c>
-      <c r="H34" s="28">
-        <v>559852396</v>
-      </c>
-      <c r="I34" s="28">
-        <f t="shared" si="3"/>
-        <v>559850000</v>
-      </c>
-      <c r="J34" s="28">
-        <v>359852396</v>
-      </c>
-      <c r="K34" s="27">
-        <v>39</v>
-      </c>
-      <c r="L34" s="27">
-        <v>57</v>
-      </c>
-      <c r="M34" s="27">
-        <v>48</v>
-      </c>
-      <c r="N34" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="O34" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P34" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Dud</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A35" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="29">
-        <v>40844</v>
-      </c>
-      <c r="E35" s="34">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F35" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.016666666666667</v>
-      </c>
-      <c r="G35" s="28">
-        <v>130000000</v>
-      </c>
-      <c r="H35" s="28">
-        <v>554987477</v>
-      </c>
-      <c r="I35" s="28">
-        <f t="shared" si="3"/>
-        <v>554990000</v>
-      </c>
-      <c r="J35" s="28">
-        <v>424987477</v>
-      </c>
-      <c r="K35" s="27">
-        <v>84</v>
-      </c>
-      <c r="L35" s="27">
-        <v>65</v>
-      </c>
-      <c r="M35" s="27">
-        <v>74.5</v>
-      </c>
-      <c r="N35" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>C</v>
-      </c>
-      <c r="O35" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P35" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A36" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" s="29">
-        <v>41068</v>
-      </c>
-      <c r="E36" s="34">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F36" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.405555555555555</v>
-      </c>
-      <c r="G36" s="28">
-        <v>145000000</v>
-      </c>
-      <c r="H36" s="28">
-        <v>746921274</v>
-      </c>
-      <c r="I36" s="28">
-        <f t="shared" si="3"/>
-        <v>746920000</v>
-      </c>
-      <c r="J36" s="28">
-        <v>601921274</v>
-      </c>
-      <c r="K36" s="27">
-        <v>79</v>
-      </c>
-      <c r="L36" s="27">
-        <v>60</v>
-      </c>
-      <c r="M36" s="27">
-        <v>69.5</v>
-      </c>
-      <c r="N36" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>D</v>
-      </c>
-      <c r="O36" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P36" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A37" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Pixar</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="29">
-        <v>41082</v>
-      </c>
-      <c r="E37" s="34">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F37" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.366666666666667</v>
-      </c>
-      <c r="G37" s="28">
-        <v>185000000</v>
-      </c>
-      <c r="H37" s="28">
-        <v>538983207</v>
-      </c>
-      <c r="I37" s="28">
-        <f t="shared" si="3"/>
-        <v>538980000</v>
-      </c>
-      <c r="J37" s="28">
-        <v>353983207</v>
-      </c>
-      <c r="K37" s="27">
-        <v>78</v>
-      </c>
-      <c r="L37" s="27">
-        <v>69</v>
-      </c>
-      <c r="M37" s="27">
-        <v>73.5</v>
-      </c>
-      <c r="N37" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>C</v>
-      </c>
-      <c r="O37" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P37" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A38" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="29">
-        <v>41234</v>
-      </c>
-      <c r="E38" s="34">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F38" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9527777777777775</v>
-      </c>
-      <c r="G38" s="28">
-        <v>145000000</v>
-      </c>
-      <c r="H38" s="28">
-        <v>306941670</v>
-      </c>
-      <c r="I38" s="28">
-        <f t="shared" si="3"/>
-        <v>306940000</v>
-      </c>
-      <c r="J38" s="28">
-        <v>161941670</v>
-      </c>
-      <c r="K38" s="27">
-        <v>74</v>
-      </c>
-      <c r="L38" s="27">
-        <v>57</v>
-      </c>
-      <c r="M38" s="27">
-        <v>65.5</v>
-      </c>
-      <c r="N38" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>D</v>
-      </c>
-      <c r="O38" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P38" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Dud</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A39" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B39" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D39" s="29">
-        <v>41355</v>
-      </c>
-      <c r="E39" s="34">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F39" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.6166666666666671</v>
-      </c>
-      <c r="G39" s="28">
-        <v>135000000</v>
-      </c>
-      <c r="H39" s="28">
-        <v>587204668</v>
-      </c>
-      <c r="I39" s="28">
-        <f t="shared" si="3"/>
-        <v>587200000</v>
-      </c>
-      <c r="J39" s="28">
-        <v>452204668</v>
-      </c>
-      <c r="K39" s="27">
-        <v>70</v>
-      </c>
-      <c r="L39" s="27">
-        <v>55</v>
-      </c>
-      <c r="M39" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="N39" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>D</v>
-      </c>
-      <c r="O39" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P39" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A40" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B40" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Pixar</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" s="29">
-        <v>41446</v>
-      </c>
-      <c r="E40" s="34">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F40" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.3694444444444436</v>
-      </c>
-      <c r="G40" s="28">
-        <v>200000000</v>
-      </c>
-      <c r="H40" s="28">
-        <v>743559607</v>
-      </c>
-      <c r="I40" s="28">
-        <f t="shared" si="3"/>
-        <v>743560000</v>
-      </c>
-      <c r="J40" s="28">
-        <v>543559607</v>
-      </c>
-      <c r="K40" s="27">
-        <v>78</v>
-      </c>
-      <c r="L40" s="27">
-        <v>65</v>
-      </c>
-      <c r="M40" s="27">
-        <v>71.5</v>
-      </c>
-      <c r="N40" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>C</v>
-      </c>
-      <c r="O40" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P40" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A41" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41" s="29">
-        <v>41472</v>
-      </c>
-      <c r="E41" s="34">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F41" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.2972222222222225</v>
-      </c>
-      <c r="G41" s="28">
-        <v>135000000</v>
-      </c>
-      <c r="H41" s="28">
-        <v>282570682</v>
-      </c>
-      <c r="I41" s="28">
-        <f t="shared" si="3"/>
-        <v>282570000</v>
-      </c>
-      <c r="J41" s="28">
-        <v>147570682</v>
-      </c>
-      <c r="K41" s="27">
-        <v>67</v>
-      </c>
-      <c r="L41" s="27">
-        <v>58</v>
-      </c>
-      <c r="M41" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="N41" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>D</v>
-      </c>
-      <c r="O41" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P41" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Dud</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A42" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B42" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Dreamworks</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D42" s="29">
-        <v>41705</v>
-      </c>
-      <c r="E42" s="34">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F42" s="33">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.6583333333333332</v>
-      </c>
-      <c r="G42" s="28">
-        <v>145000000</v>
-      </c>
-      <c r="H42" s="28">
-        <v>257783000</v>
-      </c>
-      <c r="I42" s="28">
-        <f t="shared" si="3"/>
-        <v>257780000</v>
-      </c>
-      <c r="J42" s="28">
-        <v>112783000</v>
-      </c>
-      <c r="K42" s="27">
-        <v>78</v>
-      </c>
-      <c r="L42" s="27">
-        <v>60</v>
-      </c>
-      <c r="M42" s="27">
-        <v>69</v>
-      </c>
-      <c r="N42" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>D</v>
-      </c>
-      <c r="O42" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P42" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Dud</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B44" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A45" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" s="32">
-        <f>AVERAGEIF($A$2:$A$42,B44,$K$2:$K$42)</f>
-        <v>88.714285714285708</v>
-      </c>
-      <c r="C45" s="32">
-        <f>AVERAGEIF($A$2:$A$42,C44,$K$2:$K$42)</f>
-        <v>71.296296296296291</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A46" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B46" s="32">
-        <f>AVERAGEIFS($K$2:$K$42,$A$2:$A$42,B44,$D$2:$D$42,"&gt;1/1/2000")</f>
-        <v>86.36363636363636</v>
-      </c>
-      <c r="C46" s="32">
-        <f>AVERAGEIFS($K$2:$K$42,$A$2:$A$42,C44,$D$2:$D$42,"&gt;1/1/2000")</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="30" x14ac:dyDescent="0.65">
-      <c r="A48" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" s="31">
-        <f>COUNTIFS($H$2:$H$42,"&gt;500000000",$A$2:$A$42,"P")/COUNTIF($A$2:$A$42, "P")</f>
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="44.25" x14ac:dyDescent="0.65">
-      <c r="A49" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49" s="30">
-        <f>COUNTIFS($L$2:$L$42,"&gt;90",$A$2:$A$42,"D")/COUNTIF($A$2:$A$42,"D")</f>
-        <v>0</v>
+    </row>
+    <row r="9" spans="1:3" ht="138.4" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B9" s="43" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B2)</f>
+        <v>=IF(A2 &gt;= 90, "A",
+IF(A2&gt;=80, "B",
+IF(A2&gt;=70, "C",
+IF(A2&gt;=60, "D",
+"F"))))</v>
+      </c>
+      <c r="C9" s="43" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C2)</f>
+        <v>=IFS(A2 &gt;= 90,"A",
+A2 &gt;= 80,"B",
+A2 &gt;= 70,"C",
+A2 &gt;= 60,"D",
+TRUE,"F")</v>
       </c>
     </row>
   </sheetData>
@@ -4705,6 +2504,1878 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96677E9-1D62-46B4-BFCD-FA9CBAF762C8}">
+  <dimension ref="A1:M48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.40625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.953125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6" style="27"/>
+    <col min="11" max="12" width="6" style="5"/>
+    <col min="13" max="13" width="9.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="6" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="48" t="str">
+        <f t="shared" ref="B2:B42" si="0">IF(A2="P","Pixar","Dreamworks")</f>
+        <v>Pixar</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="29">
+        <v>35025</v>
+      </c>
+      <c r="E2" s="28">
+        <v>30000000</v>
+      </c>
+      <c r="F2" s="28">
+        <v>361958736</v>
+      </c>
+      <c r="G2" s="28">
+        <v>331958736</v>
+      </c>
+      <c r="H2" s="27">
+        <v>96</v>
+      </c>
+      <c r="I2" s="47" t="str" cm="1">
+        <f t="array" ref="I2">_xlfn.IFS(H2 &gt;= 90,"A",
+H2 &gt;= 80,"B",
+H2 &gt;= 70,"C",
+H2 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>A</v>
+      </c>
+      <c r="J2" s="47" t="str">
+        <f>IF(AND(F2&gt;500000000,H2&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K2" s="48" t="str">
+        <f>IF(OR(H2&lt;50,F2&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="29">
+        <v>36124</v>
+      </c>
+      <c r="E3" s="28">
+        <v>120000000</v>
+      </c>
+      <c r="F3" s="28">
+        <v>363398565</v>
+      </c>
+      <c r="G3" s="28">
+        <v>243398565</v>
+      </c>
+      <c r="H3" s="27">
+        <v>84.5</v>
+      </c>
+      <c r="I3" s="47" t="str" cm="1">
+        <f t="array" ref="I3">_xlfn.IFS(H3 &gt;= 90,"A",
+H3 &gt;= 80,"B",
+H3 &gt;= 70,"C",
+H3 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>B</v>
+      </c>
+      <c r="J3" s="47" t="str">
+        <f>IF(AND(F3&gt;500000000,H3&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K3" s="48" t="str">
+        <f>IF(OR(H3&lt;50,F3&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M3" s="22"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="29">
+        <v>36147</v>
+      </c>
+      <c r="E4" s="28">
+        <v>70000000</v>
+      </c>
+      <c r="F4" s="28">
+        <v>218613188</v>
+      </c>
+      <c r="G4" s="28">
+        <v>148613188</v>
+      </c>
+      <c r="H4" s="27">
+        <v>71.5</v>
+      </c>
+      <c r="I4" s="47" t="str" cm="1">
+        <f t="array" ref="I4">_xlfn.IFS(H4 &gt;= 90,"A",
+H4 &gt;= 80,"B",
+H4 &gt;= 70,"C",
+H4 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>C</v>
+      </c>
+      <c r="J4" s="47" t="str">
+        <f>IF(AND(F4&gt;500000000,H4&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K4" s="48" t="str">
+        <f>IF(OR(H4&lt;50,F4&lt;350000000),"Dud"," ")</f>
+        <v>Dud</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="29">
+        <v>36488</v>
+      </c>
+      <c r="E5" s="28">
+        <v>90000000</v>
+      </c>
+      <c r="F5" s="28">
+        <v>485015179</v>
+      </c>
+      <c r="G5" s="28">
+        <v>395015179</v>
+      </c>
+      <c r="H5" s="27">
+        <v>94</v>
+      </c>
+      <c r="I5" s="47" t="str" cm="1">
+        <f t="array" ref="I5">_xlfn.IFS(H5 &gt;= 90,"A",
+H5 &gt;= 80,"B",
+H5 &gt;= 70,"C",
+H5 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>A</v>
+      </c>
+      <c r="J5" s="47" t="str">
+        <f>IF(AND(F5&gt;500000000,H5&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K5" s="48" t="str">
+        <f>IF(OR(H5&lt;50,F5&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="29">
+        <v>36616</v>
+      </c>
+      <c r="E6" s="28">
+        <v>95000000</v>
+      </c>
+      <c r="F6" s="28">
+        <v>76432727</v>
+      </c>
+      <c r="G6" s="28">
+        <v>-18567273</v>
+      </c>
+      <c r="H6" s="27">
+        <v>50</v>
+      </c>
+      <c r="I6" s="47" t="str" cm="1">
+        <f t="array" ref="I6">_xlfn.IFS(H6 &gt;= 90,"A",
+H6 &gt;= 80,"B",
+H6 &gt;= 70,"C",
+H6 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>F</v>
+      </c>
+      <c r="J6" s="47" t="str">
+        <f>IF(AND(F6&gt;500000000,H6&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K6" s="48" t="str">
+        <f>IF(OR(H6&lt;50,F6&lt;350000000),"Dud"," ")</f>
+        <v>Dud</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="29">
+        <v>36700</v>
+      </c>
+      <c r="E7" s="28">
+        <v>45000000</v>
+      </c>
+      <c r="F7" s="28">
+        <v>224834564</v>
+      </c>
+      <c r="G7" s="28">
+        <v>179834564</v>
+      </c>
+      <c r="H7" s="27">
+        <v>92.5</v>
+      </c>
+      <c r="I7" s="47" t="str" cm="1">
+        <f t="array" ref="I7">_xlfn.IFS(H7 &gt;= 90,"A",
+H7 &gt;= 80,"B",
+H7 &gt;= 70,"C",
+H7 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>A</v>
+      </c>
+      <c r="J7" s="47" t="str">
+        <f>IF(AND(F7&gt;500000000,H7&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K7" s="48" t="str">
+        <f>IF(OR(H7&lt;50,F7&lt;350000000),"Dud"," ")</f>
+        <v>Dud</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="29">
+        <v>37029</v>
+      </c>
+      <c r="E8" s="28">
+        <v>60000000</v>
+      </c>
+      <c r="F8" s="28">
+        <v>484409218</v>
+      </c>
+      <c r="G8" s="28">
+        <v>424409218</v>
+      </c>
+      <c r="H8" s="27">
+        <v>86</v>
+      </c>
+      <c r="I8" s="47" t="str" cm="1">
+        <f t="array" ref="I8">_xlfn.IFS(H8 &gt;= 90,"A",
+H8 &gt;= 80,"B",
+H8 &gt;= 70,"C",
+H8 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>B</v>
+      </c>
+      <c r="J8" s="47" t="str">
+        <f>IF(AND(F8&gt;500000000,H8&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K8" s="48" t="str">
+        <f>IF(OR(H8&lt;50,F8&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="29">
+        <v>37197</v>
+      </c>
+      <c r="E9" s="28">
+        <v>115000000</v>
+      </c>
+      <c r="F9" s="28">
+        <v>562816256</v>
+      </c>
+      <c r="G9" s="28">
+        <v>447816256</v>
+      </c>
+      <c r="H9" s="27">
+        <v>87</v>
+      </c>
+      <c r="I9" s="47" t="str" cm="1">
+        <f t="array" ref="I9">_xlfn.IFS(H9 &gt;= 90,"A",
+H9 &gt;= 80,"B",
+H9 &gt;= 70,"C",
+H9 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>B</v>
+      </c>
+      <c r="J9" s="47" t="str">
+        <f>IF(AND(F9&gt;500000000,H9&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K9" s="48" t="str">
+        <f>IF(OR(H9&lt;50,F9&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="29">
+        <v>37400</v>
+      </c>
+      <c r="E10" s="28">
+        <v>80000000</v>
+      </c>
+      <c r="F10" s="28">
+        <v>122563539</v>
+      </c>
+      <c r="G10" s="28">
+        <v>42563539</v>
+      </c>
+      <c r="H10" s="27">
+        <v>60.5</v>
+      </c>
+      <c r="I10" s="47" t="str" cm="1">
+        <f t="array" ref="I10">_xlfn.IFS(H10 &gt;= 90,"A",
+H10 &gt;= 80,"B",
+H10 &gt;= 70,"C",
+H10 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>D</v>
+      </c>
+      <c r="J10" s="47" t="str">
+        <f>IF(AND(F10&gt;500000000,H10&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K10" s="48" t="str">
+        <f>IF(OR(H10&lt;50,F10&lt;350000000),"Dud"," ")</f>
+        <v>Dud</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="29">
+        <v>37771</v>
+      </c>
+      <c r="E11" s="28">
+        <v>94000000</v>
+      </c>
+      <c r="F11" s="28">
+        <v>936743261</v>
+      </c>
+      <c r="G11" s="28">
+        <v>842743261</v>
+      </c>
+      <c r="H11" s="27">
+        <v>94.5</v>
+      </c>
+      <c r="I11" s="47" t="str" cm="1">
+        <f t="array" ref="I11">_xlfn.IFS(H11 &gt;= 90,"A",
+H11 &gt;= 80,"B",
+H11 &gt;= 70,"C",
+H11 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>A</v>
+      </c>
+      <c r="J11" s="47" t="str">
+        <f>IF(AND(F11&gt;500000000,H11&gt;90),"Hit","")</f>
+        <v>Hit</v>
+      </c>
+      <c r="K11" s="48" t="str">
+        <f>IF(OR(H11&lt;50,F11&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="29">
+        <v>37804</v>
+      </c>
+      <c r="E12" s="28">
+        <v>60000000</v>
+      </c>
+      <c r="F12" s="28">
+        <v>80767884</v>
+      </c>
+      <c r="G12" s="28">
+        <v>20767884</v>
+      </c>
+      <c r="H12" s="27">
+        <v>46.5</v>
+      </c>
+      <c r="I12" s="47" t="str" cm="1">
+        <f t="array" ref="I12">_xlfn.IFS(H12 &gt;= 90,"A",
+H12 &gt;= 80,"B",
+H12 &gt;= 70,"C",
+H12 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>F</v>
+      </c>
+      <c r="J12" s="47" t="str">
+        <f>IF(AND(F12&gt;500000000,H12&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K12" s="48" t="str">
+        <f>IF(OR(H12&lt;50,F12&lt;350000000),"Dud"," ")</f>
+        <v>Dud</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="29">
+        <v>38126</v>
+      </c>
+      <c r="E13" s="28">
+        <v>150000000</v>
+      </c>
+      <c r="F13" s="28">
+        <v>919838758</v>
+      </c>
+      <c r="G13" s="28">
+        <v>769838758</v>
+      </c>
+      <c r="H13" s="27">
+        <v>82</v>
+      </c>
+      <c r="I13" s="47" t="str" cm="1">
+        <f t="array" ref="I13">_xlfn.IFS(H13 &gt;= 90,"A",
+H13 &gt;= 80,"B",
+H13 &gt;= 70,"C",
+H13 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>B</v>
+      </c>
+      <c r="J13" s="47" t="str">
+        <f>IF(AND(F13&gt;500000000,H13&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K13" s="48" t="str">
+        <f>IF(OR(H13&lt;50,F13&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="29">
+        <v>38261</v>
+      </c>
+      <c r="E14" s="28">
+        <v>75000000</v>
+      </c>
+      <c r="F14" s="28">
+        <v>367275019</v>
+      </c>
+      <c r="G14" s="28">
+        <v>292275019</v>
+      </c>
+      <c r="H14" s="27">
+        <v>42</v>
+      </c>
+      <c r="I14" s="47" t="str" cm="1">
+        <f t="array" ref="I14">_xlfn.IFS(H14 &gt;= 90,"A",
+H14 &gt;= 80,"B",
+H14 &gt;= 70,"C",
+H14 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>F</v>
+      </c>
+      <c r="J14" s="47" t="str">
+        <f>IF(AND(F14&gt;500000000,H14&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K14" s="48" t="str">
+        <f>IF(OR(H14&lt;50,F14&lt;350000000),"Dud"," ")</f>
+        <v>Dud</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="29">
+        <v>38296</v>
+      </c>
+      <c r="E15" s="28">
+        <v>92000000</v>
+      </c>
+      <c r="F15" s="28">
+        <v>631442092</v>
+      </c>
+      <c r="G15" s="28">
+        <v>539442092</v>
+      </c>
+      <c r="H15" s="27">
+        <v>93.5</v>
+      </c>
+      <c r="I15" s="47" t="str" cm="1">
+        <f t="array" ref="I15">_xlfn.IFS(H15 &gt;= 90,"A",
+H15 &gt;= 80,"B",
+H15 &gt;= 70,"C",
+H15 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>A</v>
+      </c>
+      <c r="J15" s="47" t="str">
+        <f>IF(AND(F15&gt;500000000,H15&gt;90),"Hit","")</f>
+        <v>Hit</v>
+      </c>
+      <c r="K15" s="48" t="str">
+        <f>IF(OR(H15&lt;50,F15&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="29">
+        <v>38499</v>
+      </c>
+      <c r="E16" s="28">
+        <v>75000000</v>
+      </c>
+      <c r="F16" s="28">
+        <v>532680671</v>
+      </c>
+      <c r="G16" s="28">
+        <v>457680671</v>
+      </c>
+      <c r="H16" s="27">
+        <v>56</v>
+      </c>
+      <c r="I16" s="47" t="str" cm="1">
+        <f t="array" ref="I16">_xlfn.IFS(H16 &gt;= 90,"A",
+H16 &gt;= 80,"B",
+H16 &gt;= 70,"C",
+H16 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>F</v>
+      </c>
+      <c r="J16" s="47" t="str">
+        <f>IF(AND(F16&gt;500000000,H16&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K16" s="48" t="str">
+        <f>IF(OR(H16&lt;50,F16&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="29">
+        <v>38632</v>
+      </c>
+      <c r="E17" s="28">
+        <v>30000000</v>
+      </c>
+      <c r="F17" s="28">
+        <v>192610372</v>
+      </c>
+      <c r="G17" s="28">
+        <v>162610372</v>
+      </c>
+      <c r="H17" s="27">
+        <v>91</v>
+      </c>
+      <c r="I17" s="47" t="str" cm="1">
+        <f t="array" ref="I17">_xlfn.IFS(H17 &gt;= 90,"A",
+H17 &gt;= 80,"B",
+H17 &gt;= 70,"C",
+H17 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>A</v>
+      </c>
+      <c r="J17" s="47" t="str">
+        <f>IF(AND(F17&gt;500000000,H17&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K17" s="48" t="str">
+        <f>IF(OR(H17&lt;50,F17&lt;350000000),"Dud"," ")</f>
+        <v>Dud</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="29">
+        <v>38856</v>
+      </c>
+      <c r="E18" s="28">
+        <v>80000000</v>
+      </c>
+      <c r="F18" s="28">
+        <v>336002996</v>
+      </c>
+      <c r="G18" s="28">
+        <v>256002996</v>
+      </c>
+      <c r="H18" s="27">
+        <v>71</v>
+      </c>
+      <c r="I18" s="47" t="str" cm="1">
+        <f t="array" ref="I18">_xlfn.IFS(H18 &gt;= 90,"A",
+H18 &gt;= 80,"B",
+H18 &gt;= 70,"C",
+H18 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>C</v>
+      </c>
+      <c r="J18" s="47" t="str">
+        <f>IF(AND(F18&gt;500000000,H18&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K18" s="48" t="str">
+        <f>IF(OR(H18&lt;50,F18&lt;350000000),"Dud"," ")</f>
+        <v>Dud</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="29">
+        <v>38877</v>
+      </c>
+      <c r="E19" s="28">
+        <v>120000000</v>
+      </c>
+      <c r="F19" s="28">
+        <v>461983149</v>
+      </c>
+      <c r="G19" s="28">
+        <v>341983149</v>
+      </c>
+      <c r="H19" s="27">
+        <v>73.5</v>
+      </c>
+      <c r="I19" s="47" t="str" cm="1">
+        <f t="array" ref="I19">_xlfn.IFS(H19 &gt;= 90,"A",
+H19 &gt;= 80,"B",
+H19 &gt;= 70,"C",
+H19 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>C</v>
+      </c>
+      <c r="J19" s="47" t="str">
+        <f>IF(AND(F19&gt;500000000,H19&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K19" s="48" t="str">
+        <f>IF(OR(H19&lt;50,F19&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="29">
+        <v>39024</v>
+      </c>
+      <c r="E20" s="28">
+        <v>149000000</v>
+      </c>
+      <c r="F20" s="28">
+        <v>178120010</v>
+      </c>
+      <c r="G20" s="28">
+        <v>29120010</v>
+      </c>
+      <c r="H20" s="27">
+        <v>73</v>
+      </c>
+      <c r="I20" s="47" t="str" cm="1">
+        <f t="array" ref="I20">_xlfn.IFS(H20 &gt;= 90,"A",
+H20 &gt;= 80,"B",
+H20 &gt;= 70,"C",
+H20 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>C</v>
+      </c>
+      <c r="J20" s="47" t="str">
+        <f>IF(AND(F20&gt;500000000,H20&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K20" s="48" t="str">
+        <f>IF(OR(H20&lt;50,F20&lt;350000000),"Dud"," ")</f>
+        <v>Dud</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="29">
+        <v>39220</v>
+      </c>
+      <c r="E21" s="28">
+        <v>160000000</v>
+      </c>
+      <c r="F21" s="28">
+        <v>798958162</v>
+      </c>
+      <c r="G21" s="28">
+        <v>638958162</v>
+      </c>
+      <c r="H21" s="27">
+        <v>49</v>
+      </c>
+      <c r="I21" s="47" t="str" cm="1">
+        <f t="array" ref="I21">_xlfn.IFS(H21 &gt;= 90,"A",
+H21 &gt;= 80,"B",
+H21 &gt;= 70,"C",
+H21 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>F</v>
+      </c>
+      <c r="J21" s="47" t="str">
+        <f>IF(AND(F21&gt;500000000,H21&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K21" s="48" t="str">
+        <f>IF(OR(H21&lt;50,F21&lt;350000000),"Dud"," ")</f>
+        <v>Dud</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="29">
+        <v>39262</v>
+      </c>
+      <c r="E22" s="28">
+        <v>150000000</v>
+      </c>
+      <c r="F22" s="28">
+        <v>623722818</v>
+      </c>
+      <c r="G22" s="28">
+        <v>473722818</v>
+      </c>
+      <c r="H22" s="27">
+        <v>96</v>
+      </c>
+      <c r="I22" s="47" t="str" cm="1">
+        <f t="array" ref="I22">_xlfn.IFS(H22 &gt;= 90,"A",
+H22 &gt;= 80,"B",
+H22 &gt;= 70,"C",
+H22 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>A</v>
+      </c>
+      <c r="J22" s="47" t="str">
+        <f>IF(AND(F22&gt;500000000,H22&gt;90),"Hit","")</f>
+        <v>Hit</v>
+      </c>
+      <c r="K22" s="48" t="str">
+        <f>IF(OR(H22&lt;50,F22&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="29">
+        <v>39388</v>
+      </c>
+      <c r="E23" s="28">
+        <v>150000000</v>
+      </c>
+      <c r="F23" s="28">
+        <v>287594577</v>
+      </c>
+      <c r="G23" s="28">
+        <v>137594577</v>
+      </c>
+      <c r="H23" s="27">
+        <v>52.5</v>
+      </c>
+      <c r="I23" s="47" t="str" cm="1">
+        <f t="array" ref="I23">_xlfn.IFS(H23 &gt;= 90,"A",
+H23 &gt;= 80,"B",
+H23 &gt;= 70,"C",
+H23 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>F</v>
+      </c>
+      <c r="J23" s="47" t="str">
+        <f>IF(AND(F23&gt;500000000,H23&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K23" s="48" t="str">
+        <f>IF(OR(H23&lt;50,F23&lt;350000000),"Dud"," ")</f>
+        <v>Dud</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="29">
+        <v>39605</v>
+      </c>
+      <c r="E24" s="28">
+        <v>130000000</v>
+      </c>
+      <c r="F24" s="28">
+        <v>631744560</v>
+      </c>
+      <c r="G24" s="28">
+        <v>501744560</v>
+      </c>
+      <c r="H24" s="27">
+        <v>80</v>
+      </c>
+      <c r="I24" s="47" t="str" cm="1">
+        <f t="array" ref="I24">_xlfn.IFS(H24 &gt;= 90,"A",
+H24 &gt;= 80,"B",
+H24 &gt;= 70,"C",
+H24 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>B</v>
+      </c>
+      <c r="J24" s="47" t="str">
+        <f>IF(AND(F24&gt;500000000,H24&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K24" s="48" t="str">
+        <f>IF(OR(H24&lt;50,F24&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="29">
+        <v>39626</v>
+      </c>
+      <c r="E25" s="28">
+        <v>180000000</v>
+      </c>
+      <c r="F25" s="28">
+        <v>521311860</v>
+      </c>
+      <c r="G25" s="28">
+        <v>341311860</v>
+      </c>
+      <c r="H25" s="27">
+        <v>95</v>
+      </c>
+      <c r="I25" s="47" t="str" cm="1">
+        <f t="array" ref="I25">_xlfn.IFS(H25 &gt;= 90,"A",
+H25 &gt;= 80,"B",
+H25 &gt;= 70,"C",
+H25 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>A</v>
+      </c>
+      <c r="J25" s="47" t="str">
+        <f>IF(AND(F25&gt;500000000,H25&gt;90),"Hit","")</f>
+        <v>Hit</v>
+      </c>
+      <c r="K25" s="48" t="str">
+        <f>IF(OR(H25&lt;50,F25&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="29">
+        <v>39759</v>
+      </c>
+      <c r="E26" s="28">
+        <v>150000000</v>
+      </c>
+      <c r="F26" s="28">
+        <v>603900354</v>
+      </c>
+      <c r="G26" s="28">
+        <v>453900354</v>
+      </c>
+      <c r="H26" s="27">
+        <v>62.5</v>
+      </c>
+      <c r="I26" s="47" t="str" cm="1">
+        <f t="array" ref="I26">_xlfn.IFS(H26 &gt;= 90,"A",
+H26 &gt;= 80,"B",
+H26 &gt;= 70,"C",
+H26 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>D</v>
+      </c>
+      <c r="J26" s="47" t="str">
+        <f>IF(AND(F26&gt;500000000,H26&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K26" s="48" t="str">
+        <f>IF(OR(H26&lt;50,F26&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="29">
+        <v>39899</v>
+      </c>
+      <c r="E27" s="28">
+        <v>175000000</v>
+      </c>
+      <c r="F27" s="28">
+        <v>381509870</v>
+      </c>
+      <c r="G27" s="28">
+        <v>206509870</v>
+      </c>
+      <c r="H27" s="27">
+        <v>64</v>
+      </c>
+      <c r="I27" s="47" t="str" cm="1">
+        <f t="array" ref="I27">_xlfn.IFS(H27 &gt;= 90,"A",
+H27 &gt;= 80,"B",
+H27 &gt;= 70,"C",
+H27 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>D</v>
+      </c>
+      <c r="J27" s="47" t="str">
+        <f>IF(AND(F27&gt;500000000,H27&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K27" s="48" t="str">
+        <f>IF(OR(H27&lt;50,F27&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="29">
+        <v>39962</v>
+      </c>
+      <c r="E28" s="28">
+        <v>175000000</v>
+      </c>
+      <c r="F28" s="28">
+        <v>731342744</v>
+      </c>
+      <c r="G28" s="28">
+        <v>556342744</v>
+      </c>
+      <c r="H28" s="27">
+        <v>93</v>
+      </c>
+      <c r="I28" s="47" t="str" cm="1">
+        <f t="array" ref="I28">_xlfn.IFS(H28 &gt;= 90,"A",
+H28 &gt;= 80,"B",
+H28 &gt;= 70,"C",
+H28 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>A</v>
+      </c>
+      <c r="J28" s="47" t="str">
+        <f>IF(AND(F28&gt;500000000,H28&gt;90),"Hit","")</f>
+        <v>Hit</v>
+      </c>
+      <c r="K28" s="48" t="str">
+        <f>IF(OR(H28&lt;50,F28&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="29">
+        <v>40263</v>
+      </c>
+      <c r="E29" s="28">
+        <v>165000000</v>
+      </c>
+      <c r="F29" s="28">
+        <v>494878759</v>
+      </c>
+      <c r="G29" s="28">
+        <v>329878759</v>
+      </c>
+      <c r="H29" s="27">
+        <v>86</v>
+      </c>
+      <c r="I29" s="47" t="str" cm="1">
+        <f t="array" ref="I29">_xlfn.IFS(H29 &gt;= 90,"A",
+H29 &gt;= 80,"B",
+H29 &gt;= 70,"C",
+H29 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>B</v>
+      </c>
+      <c r="J29" s="47" t="str">
+        <f>IF(AND(F29&gt;500000000,H29&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K29" s="48" t="str">
+        <f>IF(OR(H29&lt;50,F29&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="29">
+        <v>40319</v>
+      </c>
+      <c r="E30" s="28">
+        <v>165000000</v>
+      </c>
+      <c r="F30" s="28">
+        <v>752600867</v>
+      </c>
+      <c r="G30" s="28">
+        <v>587600867</v>
+      </c>
+      <c r="H30" s="27">
+        <v>58</v>
+      </c>
+      <c r="I30" s="47" t="str" cm="1">
+        <f t="array" ref="I30">_xlfn.IFS(H30 &gt;= 90,"A",
+H30 &gt;= 80,"B",
+H30 &gt;= 70,"C",
+H30 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>F</v>
+      </c>
+      <c r="J30" s="47" t="str">
+        <f>IF(AND(F30&gt;500000000,H30&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K30" s="48" t="str">
+        <f>IF(OR(H30&lt;50,F30&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="29">
+        <v>40347</v>
+      </c>
+      <c r="E31" s="28">
+        <v>200000000</v>
+      </c>
+      <c r="F31" s="28">
+        <v>1063171911</v>
+      </c>
+      <c r="G31" s="28">
+        <v>863171911</v>
+      </c>
+      <c r="H31" s="27">
+        <v>95.5</v>
+      </c>
+      <c r="I31" s="47" t="str" cm="1">
+        <f t="array" ref="I31">_xlfn.IFS(H31 &gt;= 90,"A",
+H31 &gt;= 80,"B",
+H31 &gt;= 70,"C",
+H31 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>A</v>
+      </c>
+      <c r="J31" s="47" t="str">
+        <f>IF(AND(F31&gt;500000000,H31&gt;90),"Hit","")</f>
+        <v>Hit</v>
+      </c>
+      <c r="K31" s="48" t="str">
+        <f>IF(OR(H31&lt;50,F31&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="29">
+        <v>40487</v>
+      </c>
+      <c r="E32" s="28">
+        <v>130000000</v>
+      </c>
+      <c r="F32" s="28">
+        <v>321885765</v>
+      </c>
+      <c r="G32" s="28">
+        <v>191885765</v>
+      </c>
+      <c r="H32" s="27">
+        <v>68</v>
+      </c>
+      <c r="I32" s="47" t="str" cm="1">
+        <f t="array" ref="I32">_xlfn.IFS(H32 &gt;= 90,"A",
+H32 &gt;= 80,"B",
+H32 &gt;= 70,"C",
+H32 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>D</v>
+      </c>
+      <c r="J32" s="47" t="str">
+        <f>IF(AND(F32&gt;500000000,H32&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K32" s="48" t="str">
+        <f>IF(OR(H32&lt;50,F32&lt;350000000),"Dud"," ")</f>
+        <v>Dud</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="29">
+        <v>40689</v>
+      </c>
+      <c r="E33" s="28">
+        <v>150000000</v>
+      </c>
+      <c r="F33" s="28">
+        <v>665692281</v>
+      </c>
+      <c r="G33" s="28">
+        <v>515692281</v>
+      </c>
+      <c r="H33" s="27">
+        <v>74</v>
+      </c>
+      <c r="I33" s="47" t="str" cm="1">
+        <f t="array" ref="I33">_xlfn.IFS(H33 &gt;= 90,"A",
+H33 &gt;= 80,"B",
+H33 &gt;= 70,"C",
+H33 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>C</v>
+      </c>
+      <c r="J33" s="47" t="str">
+        <f>IF(AND(F33&gt;500000000,H33&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K33" s="48" t="str">
+        <f>IF(OR(H33&lt;50,F33&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="29">
+        <v>40718</v>
+      </c>
+      <c r="E34" s="28">
+        <v>200000000</v>
+      </c>
+      <c r="F34" s="28">
+        <v>559852396</v>
+      </c>
+      <c r="G34" s="28">
+        <v>359852396</v>
+      </c>
+      <c r="H34" s="27">
+        <v>48</v>
+      </c>
+      <c r="I34" s="47" t="str" cm="1">
+        <f t="array" ref="I34">_xlfn.IFS(H34 &gt;= 90,"A",
+H34 &gt;= 80,"B",
+H34 &gt;= 70,"C",
+H34 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>F</v>
+      </c>
+      <c r="J34" s="47" t="str">
+        <f>IF(AND(F34&gt;500000000,H34&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K34" s="48" t="str">
+        <f>IF(OR(H34&lt;50,F34&lt;350000000),"Dud"," ")</f>
+        <v>Dud</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="29">
+        <v>40844</v>
+      </c>
+      <c r="E35" s="28">
+        <v>130000000</v>
+      </c>
+      <c r="F35" s="28">
+        <v>554987477</v>
+      </c>
+      <c r="G35" s="28">
+        <v>424987477</v>
+      </c>
+      <c r="H35" s="27">
+        <v>74.5</v>
+      </c>
+      <c r="I35" s="47" t="str" cm="1">
+        <f t="array" ref="I35">_xlfn.IFS(H35 &gt;= 90,"A",
+H35 &gt;= 80,"B",
+H35 &gt;= 70,"C",
+H35 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>C</v>
+      </c>
+      <c r="J35" s="47" t="str">
+        <f>IF(AND(F35&gt;500000000,H35&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K35" s="48" t="str">
+        <f>IF(OR(H35&lt;50,F35&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="29">
+        <v>41068</v>
+      </c>
+      <c r="E36" s="28">
+        <v>145000000</v>
+      </c>
+      <c r="F36" s="28">
+        <v>746921274</v>
+      </c>
+      <c r="G36" s="28">
+        <v>601921274</v>
+      </c>
+      <c r="H36" s="27">
+        <v>69.5</v>
+      </c>
+      <c r="I36" s="47" t="str" cm="1">
+        <f t="array" ref="I36">_xlfn.IFS(H36 &gt;= 90,"A",
+H36 &gt;= 80,"B",
+H36 &gt;= 70,"C",
+H36 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>D</v>
+      </c>
+      <c r="J36" s="47" t="str">
+        <f>IF(AND(F36&gt;500000000,H36&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K36" s="48" t="str">
+        <f>IF(OR(H36&lt;50,F36&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="29">
+        <v>41082</v>
+      </c>
+      <c r="E37" s="28">
+        <v>185000000</v>
+      </c>
+      <c r="F37" s="28">
+        <v>538983207</v>
+      </c>
+      <c r="G37" s="28">
+        <v>353983207</v>
+      </c>
+      <c r="H37" s="27">
+        <v>73.5</v>
+      </c>
+      <c r="I37" s="47" t="str" cm="1">
+        <f t="array" ref="I37">_xlfn.IFS(H37 &gt;= 90,"A",
+H37 &gt;= 80,"B",
+H37 &gt;= 70,"C",
+H37 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>C</v>
+      </c>
+      <c r="J37" s="47" t="str">
+        <f>IF(AND(F37&gt;500000000,H37&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K37" s="48" t="str">
+        <f>IF(OR(H37&lt;50,F37&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="29">
+        <v>41234</v>
+      </c>
+      <c r="E38" s="28">
+        <v>145000000</v>
+      </c>
+      <c r="F38" s="28">
+        <v>306941670</v>
+      </c>
+      <c r="G38" s="28">
+        <v>161941670</v>
+      </c>
+      <c r="H38" s="27">
+        <v>65.5</v>
+      </c>
+      <c r="I38" s="47" t="str" cm="1">
+        <f t="array" ref="I38">_xlfn.IFS(H38 &gt;= 90,"A",
+H38 &gt;= 80,"B",
+H38 &gt;= 70,"C",
+H38 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>D</v>
+      </c>
+      <c r="J38" s="47" t="str">
+        <f>IF(AND(F38&gt;500000000,H38&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K38" s="48" t="str">
+        <f>IF(OR(H38&lt;50,F38&lt;350000000),"Dud"," ")</f>
+        <v>Dud</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="29">
+        <v>41355</v>
+      </c>
+      <c r="E39" s="28">
+        <v>135000000</v>
+      </c>
+      <c r="F39" s="28">
+        <v>587204668</v>
+      </c>
+      <c r="G39" s="28">
+        <v>452204668</v>
+      </c>
+      <c r="H39" s="27">
+        <v>62.5</v>
+      </c>
+      <c r="I39" s="47" t="str" cm="1">
+        <f t="array" ref="I39">_xlfn.IFS(H39 &gt;= 90,"A",
+H39 &gt;= 80,"B",
+H39 &gt;= 70,"C",
+H39 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>D</v>
+      </c>
+      <c r="J39" s="47" t="str">
+        <f>IF(AND(F39&gt;500000000,H39&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K39" s="48" t="str">
+        <f>IF(OR(H39&lt;50,F39&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="29">
+        <v>41446</v>
+      </c>
+      <c r="E40" s="28">
+        <v>200000000</v>
+      </c>
+      <c r="F40" s="28">
+        <v>743559607</v>
+      </c>
+      <c r="G40" s="28">
+        <v>543559607</v>
+      </c>
+      <c r="H40" s="27">
+        <v>71.5</v>
+      </c>
+      <c r="I40" s="47" t="str" cm="1">
+        <f t="array" ref="I40">_xlfn.IFS(H40 &gt;= 90,"A",
+H40 &gt;= 80,"B",
+H40 &gt;= 70,"C",
+H40 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>C</v>
+      </c>
+      <c r="J40" s="47" t="str">
+        <f>IF(AND(F40&gt;500000000,H40&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K40" s="48" t="str">
+        <f>IF(OR(H40&lt;50,F40&lt;350000000),"Dud"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="29">
+        <v>41472</v>
+      </c>
+      <c r="E41" s="28">
+        <v>135000000</v>
+      </c>
+      <c r="F41" s="28">
+        <v>282570682</v>
+      </c>
+      <c r="G41" s="28">
+        <v>147570682</v>
+      </c>
+      <c r="H41" s="27">
+        <v>62.5</v>
+      </c>
+      <c r="I41" s="47" t="str" cm="1">
+        <f t="array" ref="I41">_xlfn.IFS(H41 &gt;= 90,"A",
+H41 &gt;= 80,"B",
+H41 &gt;= 70,"C",
+H41 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>D</v>
+      </c>
+      <c r="J41" s="47" t="str">
+        <f>IF(AND(F41&gt;500000000,H41&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K41" s="48" t="str">
+        <f>IF(OR(H41&lt;50,F41&lt;350000000),"Dud"," ")</f>
+        <v>Dud</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A42" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="29">
+        <v>41705</v>
+      </c>
+      <c r="E42" s="28">
+        <v>145000000</v>
+      </c>
+      <c r="F42" s="28">
+        <v>257783000</v>
+      </c>
+      <c r="G42" s="28">
+        <v>112783000</v>
+      </c>
+      <c r="H42" s="27">
+        <v>69</v>
+      </c>
+      <c r="I42" s="47" t="str" cm="1">
+        <f t="array" ref="I42">_xlfn.IFS(H42 &gt;= 90,"A",
+H42 &gt;= 80,"B",
+H42 &gt;= 70,"C",
+H42 &gt;= 60,"D",
+TRUE,"F")</f>
+        <v>D</v>
+      </c>
+      <c r="J42" s="47" t="str">
+        <f>IF(AND(F42&gt;500000000,H42&gt;90),"Hit","")</f>
+        <v/>
+      </c>
+      <c r="K42" s="48" t="str">
+        <f>IF(OR(H42&lt;50,F42&lt;350000000),"Dud"," ")</f>
+        <v>Dud</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B44" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A45" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="30">
+        <f>AVERAGEIF($A$2:$A$42,B44,$H$2:$H$42)</f>
+        <v>85.392857142857139</v>
+      </c>
+      <c r="C45" s="30">
+        <f>AVERAGEIF($A$2:$A$42,C44,$H$2:$H$42)</f>
+        <v>67.388888888888886</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A46" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" s="30">
+        <f>AVERAGEIFS($H$2:$H$42,$A$2:$A$42,B44,$D$2:$D$42,"&gt;1/1/2010")</f>
+        <v>72.125</v>
+      </c>
+      <c r="C46" s="30">
+        <f>AVERAGEIFS($H$2:$H$42,$A$2:$A$42,C44,$D$2:$D$42,"&gt;1/1/2010")</f>
+        <v>68.95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="A48" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="50">
+        <f>COUNTIFS($F$2:$F$42,"&gt;500000000",$A$2:$A$42,"P")/COUNTIF($A$2:$A$42, "P")</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94AE5B2-2695-4C29-8135-19C8747F1AB4}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -4819,7 +4490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FFCEA7-143F-4B17-B340-A567C47AB9DD}">
   <dimension ref="A1:M33"/>
   <sheetViews>
@@ -4835,12 +4506,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C2" s="16">
@@ -4857,7 +4528,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="41" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="15">
@@ -4878,7 +4549,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="48"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="15">
         <v>0.05</v>
       </c>
@@ -4896,7 +4567,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="48"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -4914,7 +4585,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="48"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="15">
         <v>0.09</v>
       </c>
@@ -5842,7 +5513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322CCF44-1803-42DA-9537-F9FBAA3D895F}">
   <dimension ref="A1:T334"/>
   <sheetViews>
@@ -15616,7 +15287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D9946F-7F78-448D-BA72-2AEBB6D43798}">
   <dimension ref="A1:L235"/>
   <sheetViews>
@@ -24568,7 +24239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502528A4-295C-4CA4-85FC-AFA2693AAA6F}">
   <dimension ref="A2:F5"/>
   <sheetViews>
@@ -24588,17 +24259,17 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xlfn.LAMBDA(_xlpm.radius, (2 * PI() * _xlpm.radius))(B2)</f>
         <v>12.566370614359172</v>
       </c>
-      <c r="F3" s="46"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">CIRCUMFERENCE(2)</f>
@@ -24610,7 +24281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC055D4-D6EA-4551-8587-ACAF403600BF}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -24625,7 +24296,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -24633,7 +24304,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B2">
         <v>-5</v>
@@ -24649,7 +24320,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5:C5" xml:space="preserve"> (-$B$2 - {-1,1} * SQRT($B$2^2 - 4 * $B$1* $B$3)) / (2 *$B$1)</f>
@@ -24661,7 +24332,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7:C7">_xlfn.LET(_xlpm.a,B1,
@@ -24676,7 +24347,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B9" cm="1">
         <f t="array" ref="B9:C9">_xlfn.LAMBDA(_xlpm.a,_xlpm.b,_xlpm.c,
@@ -24689,8 +24360,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="63" x14ac:dyDescent="0.65">
-      <c r="A11" s="49" t="s">
-        <v>239</v>
+      <c r="A11" s="39" t="s">
+        <v>231</v>
       </c>
       <c r="B11" cm="1">
         <f t="array" ref="B11:C11">QUADRATIC(B1, B2, B3)</f>
@@ -24703,18 +24374,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C86585-EB02-412A-827E-EEBA7C051A3A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>